--- a/Covid-19_SitRep_Data.xlsx
+++ b/Covid-19_SitRep_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwinterm/PycharmProjects/DadSitRepForMason/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B006D639-31C6-A64C-BA59-11DBD70A1F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFEC31A-605C-894B-BF11-EF9869EA2CDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="8540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,14 +137,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +159,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,9 +182,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -191,18 +197,19 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="date" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -515,40 +522,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI92"/>
+  <dimension ref="A1:AI91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="9" customWidth="1"/>
     <col min="10" max="10" width="16.5" style="4" customWidth="1"/>
     <col min="11" max="11" width="18.5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.1640625" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="8.83203125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="8.83203125" style="9" customWidth="1"/>
     <col min="19" max="19" width="8.83203125" style="3" customWidth="1"/>
     <col min="20" max="20" width="10.83203125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="9.83203125" style="9" customWidth="1"/>
+    <col min="21" max="21" width="9.83203125" style="6" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
     <col min="23" max="23" width="12.5" customWidth="1"/>
-    <col min="24" max="24" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.83203125" style="9" customWidth="1"/>
+    <col min="24" max="24" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.83203125" style="6" customWidth="1"/>
     <col min="29" max="29" width="11.83203125" style="3" customWidth="1"/>
     <col min="30" max="30" width="12.5" customWidth="1"/>
     <col min="31" max="31" width="10.5" customWidth="1"/>
@@ -561,28 +568,28 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -591,25 +598,25 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
@@ -618,7 +625,7 @@
       <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="4" t="s">
@@ -627,10 +634,10 @@
       <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="4" t="s">
@@ -668,28 +675,28 @@
       <c r="A2" s="1">
         <v>44105</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="8">
         <v>34120604</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="9">
         <v>1016526</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="8">
         <v>7266942</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="8">
         <v>207550</v>
       </c>
       <c r="G2" s="4">
         <v>148721</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="9">
         <v>3228</v>
       </c>
       <c r="J2" s="4">
@@ -698,25 +705,25 @@
       <c r="K2" s="4">
         <v>17713</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="8">
         <v>15358</v>
       </c>
       <c r="M2">
         <v>628</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="8">
         <v>125510</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="8">
         <v>3805</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="9">
         <v>21226</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="5">
         <v>0.04</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="9">
         <v>2193</v>
       </c>
       <c r="S2" s="3">
@@ -725,7 +732,7 @@
       <c r="T2" s="2">
         <v>3997</v>
       </c>
-      <c r="U2" s="9">
+      <c r="U2" s="6">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="V2">
@@ -734,10 +741,10 @@
       <c r="W2">
         <v>150</v>
       </c>
-      <c r="X2" s="6">
+      <c r="X2" s="8">
         <v>15138</v>
       </c>
-      <c r="Y2" s="9">
+      <c r="Y2" s="6">
         <v>0.06</v>
       </c>
       <c r="Z2">
@@ -775,28 +782,28 @@
       <c r="A3" s="1">
         <v>44106</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -805,25 +812,25 @@
       <c r="K3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M3" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="7" t="s">
+      <c r="N3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S3" s="3" t="s">
@@ -832,7 +839,7 @@
       <c r="T3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V3" t="s">
@@ -841,10 +848,10 @@
       <c r="W3" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y3" s="9" t="s">
+      <c r="X3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z3" t="s">
@@ -882,28 +889,28 @@
       <c r="A4" s="1">
         <v>44107</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -912,25 +919,25 @@
       <c r="K4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M4" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="7" t="s">
+      <c r="N4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S4" s="3" t="s">
@@ -939,7 +946,7 @@
       <c r="T4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V4" t="s">
@@ -948,10 +955,10 @@
       <c r="W4" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y4" s="9" t="s">
+      <c r="X4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z4" t="s">
@@ -989,28 +996,28 @@
       <c r="A5" s="1">
         <v>44108</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="8">
         <v>35008447</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <v>1034818</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="8">
         <v>7411716</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="8">
         <v>209749</v>
       </c>
       <c r="G5" s="4">
         <v>151870</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="5">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="9">
         <v>3273</v>
       </c>
       <c r="J5" s="4">
@@ -1019,25 +1026,25 @@
       <c r="K5" s="4">
         <v>17848</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="8">
         <v>15519</v>
       </c>
       <c r="M5">
         <v>631</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="8">
         <v>127290</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="8">
         <v>3814</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="9">
         <v>21493</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="5">
         <v>3.9E-2</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="9">
         <v>2205</v>
       </c>
       <c r="S5" s="3">
@@ -1046,7 +1053,7 @@
       <c r="T5" s="2">
         <v>4045</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="6">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="V5">
@@ -1055,10 +1062,10 @@
       <c r="W5">
         <v>151</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="8">
         <v>15307</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="Y5" s="6">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="Z5">
@@ -1096,28 +1103,28 @@
       <c r="A6" s="1">
         <v>44109</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="8">
         <v>35333085</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="9">
         <v>1039000</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>7447363</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="8">
         <v>210013</v>
       </c>
       <c r="G6" s="4">
         <v>152557</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="5">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="9">
         <v>3276</v>
       </c>
       <c r="J6" s="4">
@@ -1126,25 +1133,25 @@
       <c r="K6" s="4">
         <v>17893</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="8">
         <v>15547</v>
       </c>
       <c r="M6">
         <v>631</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="8">
         <v>127971</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="8">
         <v>3817</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="9">
         <v>21568</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="5">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="9">
         <v>2206</v>
       </c>
       <c r="S6" s="3">
@@ -1153,7 +1160,7 @@
       <c r="T6" s="2">
         <v>4057</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="V6">
@@ -1162,10 +1169,10 @@
       <c r="W6">
         <v>152</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="8">
         <v>15349</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="Y6" s="6">
         <v>0.06</v>
       </c>
       <c r="Z6">
@@ -1203,28 +1210,28 @@
       <c r="A7" s="1">
         <v>44110</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="8">
         <v>35638016</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="9">
         <v>1046392</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="8">
         <v>7488372</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="8">
         <v>210637</v>
       </c>
       <c r="G7" s="4">
         <v>153182</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="5">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="9">
         <v>3291</v>
       </c>
       <c r="J7" s="4">
@@ -1233,25 +1240,25 @@
       <c r="K7" s="4">
         <v>18112</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="8">
         <v>15652</v>
       </c>
       <c r="M7">
         <v>631</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="8">
         <v>128204</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="8">
         <v>3823</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="9">
         <v>21626</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="5">
         <v>3.9E-2</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="9">
         <v>2208</v>
       </c>
       <c r="S7" s="3">
@@ -1260,7 +1267,7 @@
       <c r="T7" s="2">
         <v>4068</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U7" s="6">
         <v>3.1E-2</v>
       </c>
       <c r="V7">
@@ -1269,10 +1276,10 @@
       <c r="W7">
         <v>152</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="8">
         <v>15381</v>
       </c>
-      <c r="Y7" s="9">
+      <c r="Y7" s="6">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="Z7">
@@ -1310,28 +1317,28 @@
       <c r="A8" s="1">
         <v>44111</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="8">
         <v>36068991</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="9">
         <v>1054537</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>7546706</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="8">
         <v>211725</v>
       </c>
       <c r="G8" s="4">
         <v>153691</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="5">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="9">
         <v>3303</v>
       </c>
       <c r="J8" s="4">
@@ -1340,25 +1347,25 @@
       <c r="K8" s="4">
         <v>18189</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="8">
         <v>15697</v>
       </c>
       <c r="M8">
         <v>632</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="8">
         <v>128664</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="8">
         <v>3829</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="9">
         <v>21659</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="9">
         <v>2206</v>
       </c>
       <c r="S8" s="3">
@@ -1367,7 +1374,7 @@
       <c r="T8" s="2">
         <v>4083</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="6">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="V8">
@@ -1376,10 +1383,10 @@
       <c r="W8">
         <v>152</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="8">
         <v>15435</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="Y8" s="6">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="Z8">
@@ -1417,28 +1424,28 @@
       <c r="A9" s="1">
         <v>44112</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="8">
         <v>36349500</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="9">
         <v>1058698</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="8">
         <v>7586904</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="8">
         <v>212420</v>
       </c>
       <c r="G9" s="4">
         <v>155535</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="5">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="9">
         <v>3328</v>
       </c>
       <c r="J9" s="4">
@@ -1447,25 +1454,25 @@
       <c r="K9" s="4">
         <v>18278</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="8">
         <v>15765</v>
       </c>
       <c r="M9">
         <v>634</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="8">
         <v>129425</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="8">
         <v>3835</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="9">
         <v>21845</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="5">
         <v>3.9E-2</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="9">
         <v>2206</v>
       </c>
       <c r="S9" s="3">
@@ -1474,7 +1481,7 @@
       <c r="T9" s="2">
         <v>4132</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="6">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="V9">
@@ -1483,10 +1490,10 @@
       <c r="W9">
         <v>152</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="8">
         <v>15570</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="Y9" s="6">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="Z9">
@@ -1524,28 +1531,28 @@
       <c r="A10" s="1">
         <v>44113</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="B10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="7" t="s">
+      <c r="H10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -1554,25 +1561,25 @@
       <c r="K10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R10" s="7" t="s">
+      <c r="N10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S10" s="3" t="s">
@@ -1581,7 +1588,7 @@
       <c r="T10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="U10" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V10" t="s">
@@ -1590,10 +1597,10 @@
       <c r="W10" t="s">
         <v>35</v>
       </c>
-      <c r="X10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y10" s="9" t="s">
+      <c r="X10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z10" t="s">
@@ -1631,28 +1638,28 @@
       <c r="A11" s="1">
         <v>44114</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="B11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="H11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -1661,25 +1668,25 @@
       <c r="K11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M11" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R11" s="7" t="s">
+      <c r="N11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S11" s="3" t="s">
@@ -1688,7 +1695,7 @@
       <c r="T11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U11" s="9" t="s">
+      <c r="U11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V11" t="s">
@@ -1697,10 +1704,10 @@
       <c r="W11" t="s">
         <v>35</v>
       </c>
-      <c r="X11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y11" s="9" t="s">
+      <c r="X11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z11" t="s">
@@ -1738,28 +1745,28 @@
       <c r="A12" s="1">
         <v>44115</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="8">
         <v>37350759</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>1074732</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="8">
         <v>7756846</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="8">
         <v>214735</v>
       </c>
       <c r="G12" s="4">
         <v>158716</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="5">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="9">
         <v>3358</v>
       </c>
       <c r="J12" s="4">
@@ -1768,25 +1775,25 @@
       <c r="K12" s="4">
         <v>18492</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="8">
         <v>15984</v>
       </c>
       <c r="M12">
         <v>637</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="8">
         <v>131357</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="8">
         <v>3854</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="9">
         <v>22170</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="9">
         <v>2217</v>
       </c>
       <c r="S12" s="3">
@@ -1795,7 +1802,7 @@
       <c r="T12" s="2">
         <v>4187</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="6">
         <v>0.03</v>
       </c>
       <c r="V12">
@@ -1804,10 +1811,10 @@
       <c r="W12">
         <v>152</v>
       </c>
-      <c r="X12" s="6">
+      <c r="X12" s="8">
         <v>15717</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Y12" s="6">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="Z12">
@@ -1845,28 +1852,28 @@
       <c r="A13" s="1">
         <v>44116</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="8">
         <v>37728386</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="9">
         <v>1078629</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="8">
         <v>7803259</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="8">
         <v>214061</v>
       </c>
       <c r="G13" s="4">
         <v>159570</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="9">
         <v>3361</v>
       </c>
       <c r="J13" s="4">
@@ -1875,25 +1882,25 @@
       <c r="K13" s="4">
         <v>18539</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="8">
         <v>16022</v>
       </c>
       <c r="M13">
         <v>637</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="8">
         <v>131861</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="8">
         <v>3859</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="9">
         <v>22307</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="5">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="9">
         <v>2221</v>
       </c>
       <c r="S13" s="3">
@@ -1902,7 +1909,7 @@
       <c r="T13" s="2">
         <v>4209</v>
       </c>
-      <c r="U13" s="9">
+      <c r="U13" s="6">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="V13">
@@ -1911,10 +1918,10 @@
       <c r="W13">
         <v>152</v>
       </c>
-      <c r="X13" s="6">
+      <c r="X13" s="8">
         <v>15785</v>
       </c>
-      <c r="Y13" s="9">
+      <c r="Y13" s="6">
         <v>6.3E-2</v>
       </c>
       <c r="Z13">
@@ -1952,28 +1959,28 @@
       <c r="A14" s="1">
         <v>44117</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="8">
         <v>37984579</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="9">
         <v>1083216</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="8">
         <v>7836680</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="8">
         <v>215549</v>
       </c>
       <c r="G14" s="4">
         <v>160805</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="9">
         <v>3372</v>
       </c>
       <c r="J14" s="4">
@@ -1982,25 +1989,25 @@
       <c r="K14" s="4">
         <v>18657</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="8">
         <v>16068</v>
       </c>
       <c r="M14">
         <v>637</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="8">
         <v>132343</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="8">
         <v>3868</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="9">
         <v>22404</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="9">
         <v>2223</v>
       </c>
       <c r="S14" s="3">
@@ -2009,7 +2016,7 @@
       <c r="T14" s="2">
         <v>4228</v>
       </c>
-      <c r="U14" s="9">
+      <c r="U14" s="6">
         <v>3.1E-2</v>
       </c>
       <c r="V14">
@@ -2018,10 +2025,10 @@
       <c r="W14">
         <v>152</v>
       </c>
-      <c r="X14" s="6">
+      <c r="X14" s="8">
         <v>15906</v>
       </c>
-      <c r="Y14" s="9">
+      <c r="Y14" s="6">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="Z14">
@@ -2059,28 +2066,28 @@
       <c r="A15" s="1">
         <v>44118</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="8">
         <v>38416443</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="9">
         <v>1090641</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="8">
         <v>7907677</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="8">
         <v>216632</v>
       </c>
       <c r="G15" s="4">
         <v>161610</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="5">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="9">
         <v>3381</v>
       </c>
       <c r="J15" s="4">
@@ -2089,25 +2096,25 @@
       <c r="K15" s="4">
         <v>18747</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="8">
         <v>16132</v>
       </c>
       <c r="M15">
         <v>638</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="8">
         <v>132918</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="8">
         <v>3877</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="9">
         <v>22495</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="5">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="9">
         <v>2224</v>
       </c>
       <c r="S15" s="3">
@@ -2116,7 +2123,7 @@
       <c r="T15" s="2">
         <v>4250</v>
       </c>
-      <c r="U15" s="9">
+      <c r="U15" s="6">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="V15">
@@ -2125,10 +2132,10 @@
       <c r="W15">
         <v>152</v>
       </c>
-      <c r="X15" s="6">
+      <c r="X15" s="8">
         <v>15937</v>
       </c>
-      <c r="Y15" s="9">
+      <c r="Y15" s="6">
         <v>5.5E-2</v>
       </c>
       <c r="Z15">
@@ -2166,28 +2173,28 @@
       <c r="A16" s="1">
         <v>44119</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="8">
         <v>38750144</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="9">
         <v>1095216</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="8">
         <v>7970269</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="8">
         <v>217696</v>
       </c>
       <c r="G16" s="4">
         <v>162941</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="5">
         <v>4.7E-2</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="9">
         <v>3388</v>
       </c>
       <c r="J16" s="4">
@@ -2196,25 +2203,25 @@
       <c r="K16" s="4">
         <v>18831</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="8">
         <v>16166</v>
       </c>
       <c r="M16">
         <v>638</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="8">
         <v>133548</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="8">
         <v>3883</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="9">
         <v>22560</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="9">
         <v>2227</v>
       </c>
       <c r="S16" s="3">
@@ -2223,7 +2230,7 @@
       <c r="T16" s="2">
         <v>4278</v>
       </c>
-      <c r="U16" s="9">
+      <c r="U16" s="6">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="V16">
@@ -2232,10 +2239,10 @@
       <c r="W16">
         <v>152</v>
       </c>
-      <c r="X16" s="6">
+      <c r="X16" s="8">
         <v>16022</v>
       </c>
-      <c r="Y16" s="9">
+      <c r="Y16" s="6">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="Z16">
@@ -2273,28 +2280,28 @@
       <c r="A17" s="1">
         <v>44120</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="B17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="7" t="s">
+      <c r="H17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J17" s="4" t="s">
@@ -2303,25 +2310,25 @@
       <c r="K17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M17" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R17" s="7" t="s">
+      <c r="N17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R17" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S17" s="3" t="s">
@@ -2330,7 +2337,7 @@
       <c r="T17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U17" s="9" t="s">
+      <c r="U17" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V17" t="s">
@@ -2339,10 +2346,10 @@
       <c r="W17" t="s">
         <v>35</v>
       </c>
-      <c r="X17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y17" s="9" t="s">
+      <c r="X17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y17" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z17" t="s">
@@ -2380,28 +2387,28 @@
       <c r="A18" s="1">
         <v>44121</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="B18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="7" t="s">
+      <c r="H18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J18" s="4" t="s">
@@ -2410,25 +2417,25 @@
       <c r="K18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M18" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R18" s="7" t="s">
+      <c r="N18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S18" s="3" t="s">
@@ -2437,7 +2444,7 @@
       <c r="T18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U18" s="9" t="s">
+      <c r="U18" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V18" t="s">
@@ -2446,10 +2453,10 @@
       <c r="W18" t="s">
         <v>35</v>
       </c>
-      <c r="X18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y18" s="9" t="s">
+      <c r="X18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y18" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z18" t="s">
@@ -2487,28 +2494,28 @@
       <c r="A19" s="1">
         <v>44122</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="8">
         <v>39842711</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="9">
         <v>1111957</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="8">
         <v>8142913</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="8">
         <v>219676</v>
       </c>
       <c r="G19" s="4">
         <v>166138</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="5">
         <v>0.05</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="9">
         <v>3433</v>
       </c>
       <c r="J19" s="4">
@@ -2517,25 +2524,25 @@
       <c r="K19" s="4">
         <v>19034</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="8">
         <v>16370</v>
       </c>
       <c r="M19">
         <v>641</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="8">
         <v>135657</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="8">
         <v>3891</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="9">
         <v>22846</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="5">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="9">
         <v>2236</v>
       </c>
       <c r="S19" s="3">
@@ -2544,7 +2551,7 @@
       <c r="T19" s="2">
         <v>4372</v>
       </c>
-      <c r="U19" s="9">
+      <c r="U19" s="6">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="V19">
@@ -2553,10 +2560,10 @@
       <c r="W19">
         <v>152</v>
       </c>
-      <c r="X19" s="6">
+      <c r="X19" s="8">
         <v>16198</v>
       </c>
-      <c r="Y19" s="9">
+      <c r="Y19" s="6">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="Z19">
@@ -2594,28 +2601,28 @@
       <c r="A20" s="1">
         <v>44123</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="8">
         <v>40269921</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="9">
         <v>1116138</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="8">
         <v>8201554</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="8">
         <v>220020</v>
       </c>
       <c r="G20" s="4">
         <v>166828</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="5">
         <v>0.05</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="9">
         <v>3457</v>
       </c>
       <c r="J20" s="4">
@@ -2624,25 +2631,25 @@
       <c r="K20" s="4">
         <v>19096</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="8">
         <v>16395</v>
       </c>
       <c r="M20">
         <v>641</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="8">
         <v>136154</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="8">
         <v>3895</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="9">
         <v>22916</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="9">
         <v>2239</v>
       </c>
       <c r="S20" s="3">
@@ -2651,7 +2658,7 @@
       <c r="T20" s="2">
         <v>4384</v>
       </c>
-      <c r="U20" s="9">
+      <c r="U20" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="V20">
@@ -2660,10 +2667,10 @@
       <c r="W20">
         <v>152</v>
       </c>
-      <c r="X20" s="6">
+      <c r="X20" s="8">
         <v>16257</v>
       </c>
-      <c r="Y20" s="9">
+      <c r="Y20" s="6">
         <v>5.5E-2</v>
       </c>
       <c r="Z20">
@@ -2701,28 +2708,28 @@
       <c r="A21" s="1">
         <v>44124</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="8">
         <v>40632190</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="9">
         <v>1121574</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="8">
         <v>8258568</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="8">
         <v>220806</v>
       </c>
       <c r="G21" s="4">
         <v>167754</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="5">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="9">
         <v>3485</v>
       </c>
       <c r="J21" s="4">
@@ -2731,25 +2738,25 @@
       <c r="K21" s="4">
         <v>19170</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="8">
         <v>16445</v>
       </c>
       <c r="M21">
         <v>642</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="8">
         <v>136744</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="8">
         <v>3904</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="9">
         <v>22999</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="9">
         <v>2239</v>
       </c>
       <c r="S21" s="3">
@@ -2758,7 +2765,7 @@
       <c r="T21" s="2">
         <v>4399</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U21" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="V21">
@@ -2767,10 +2774,10 @@
       <c r="W21">
         <v>152</v>
       </c>
-      <c r="X21" s="6">
+      <c r="X21" s="8">
         <v>16319</v>
       </c>
-      <c r="Y21" s="9">
+      <c r="Y21" s="6">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="Z21">
@@ -2808,28 +2815,28 @@
       <c r="A22" s="1">
         <v>44125</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="8">
         <v>41118064</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="9">
         <v>1129185</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="8">
         <v>8329044</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="8">
         <v>221990</v>
       </c>
       <c r="G22" s="4">
         <v>168772</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="5">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="9">
         <v>3515</v>
       </c>
       <c r="J22" s="4">
@@ -2838,25 +2845,25 @@
       <c r="K22" s="4">
         <v>19226</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="8">
         <v>16498</v>
       </c>
       <c r="M22">
         <v>642</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="8">
         <v>137236</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="8">
         <v>3912</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="9">
         <v>23081</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q22" s="5">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="9">
         <v>2242</v>
       </c>
       <c r="S22" s="3">
@@ -2865,7 +2872,7 @@
       <c r="T22" s="2">
         <v>4437</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U22" s="6">
         <v>3.9E-2</v>
       </c>
       <c r="V22">
@@ -2874,10 +2881,10 @@
       <c r="W22">
         <v>152</v>
       </c>
-      <c r="X22" s="6">
+      <c r="X22" s="8">
         <v>16387</v>
       </c>
-      <c r="Y22" s="9">
+      <c r="Y22" s="6">
         <v>0.06</v>
       </c>
       <c r="Z22">
@@ -2915,28 +2922,28 @@
       <c r="A23" s="1">
         <v>44126</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="8">
         <v>41536126</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="9">
         <v>1134981</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="8">
         <v>8393406</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="8">
         <v>222896</v>
       </c>
       <c r="G23" s="4">
         <v>170104</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="5">
         <v>0.05</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="9">
         <v>3524</v>
       </c>
       <c r="J23" s="4">
@@ -2945,25 +2952,25 @@
       <c r="K23" s="4">
         <v>19321</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="8">
         <v>16537</v>
       </c>
       <c r="M23">
         <v>642</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="8">
         <v>137979</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="8">
         <v>3924</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="9">
         <v>23245</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="5">
         <v>3.9E-2</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23" s="9">
         <v>2247</v>
       </c>
       <c r="S23" s="3">
@@ -2972,7 +2979,7 @@
       <c r="T23" s="2">
         <v>4457</v>
       </c>
-      <c r="U23" s="9">
+      <c r="U23" s="6">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="V23">
@@ -2981,10 +2988,10 @@
       <c r="W23">
         <v>152</v>
       </c>
-      <c r="X23" s="6">
+      <c r="X23" s="8">
         <v>16496</v>
       </c>
-      <c r="Y23" s="9">
+      <c r="Y23" s="6">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="Z23">
@@ -3022,28 +3029,28 @@
       <c r="A24" s="1">
         <v>44127</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="B24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="7" t="s">
+      <c r="H24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J24" s="4" t="s">
@@ -3052,25 +3059,25 @@
       <c r="K24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M24" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R24" s="7" t="s">
+      <c r="N24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R24" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S24" s="3" t="s">
@@ -3079,7 +3086,7 @@
       <c r="T24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U24" s="9" t="s">
+      <c r="U24" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V24" t="s">
@@ -3088,10 +3095,10 @@
       <c r="W24" t="s">
         <v>35</v>
       </c>
-      <c r="X24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y24" s="9" t="s">
+      <c r="X24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y24" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z24" t="s">
@@ -3129,28 +3136,28 @@
       <c r="A25" s="1">
         <v>44128</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="B25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="7" t="s">
+      <c r="H25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J25" s="4" t="s">
@@ -3159,25 +3166,25 @@
       <c r="K25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M25" t="s">
         <v>35</v>
       </c>
-      <c r="N25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R25" s="7" t="s">
+      <c r="N25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R25" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S25" s="3" t="s">
@@ -3186,7 +3193,7 @@
       <c r="T25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U25" s="9" t="s">
+      <c r="U25" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V25" t="s">
@@ -3195,10 +3202,10 @@
       <c r="W25" t="s">
         <v>35</v>
       </c>
-      <c r="X25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y25" s="9" t="s">
+      <c r="X25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y25" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z25" t="s">
@@ -3236,28 +3243,28 @@
       <c r="A26" s="1">
         <v>44129</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="8">
         <v>42876132</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="9">
         <v>1152215</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="8">
         <v>8619935</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="8">
         <v>225111</v>
       </c>
       <c r="G26" s="4">
         <v>173371</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="5">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="9">
         <v>3579</v>
       </c>
       <c r="J26" s="4">
@@ -3266,25 +3273,25 @@
       <c r="K26" s="4">
         <v>19520</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="8">
         <v>16767</v>
       </c>
       <c r="M26">
         <v>642</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="8">
         <v>140279</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="8">
         <v>3950</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="9">
         <v>23584</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q26" s="5">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="R26" s="7">
+      <c r="R26" s="9">
         <v>2272</v>
       </c>
       <c r="S26" s="3">
@@ -3293,7 +3300,7 @@
       <c r="T26" s="2">
         <v>4537</v>
       </c>
-      <c r="U26" s="9">
+      <c r="U26" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="V26">
@@ -3302,10 +3309,10 @@
       <c r="W26">
         <v>154</v>
       </c>
-      <c r="X26" s="6">
+      <c r="X26" s="8">
         <v>16640</v>
       </c>
-      <c r="Y26" s="9">
+      <c r="Y26" s="6">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="Z26">
@@ -3343,28 +3350,28 @@
       <c r="A27" s="1">
         <v>44130</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="8">
         <v>43374127</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="9">
         <v>1157284</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="8">
         <v>8687289</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="8">
         <v>225580</v>
       </c>
       <c r="G27" s="4">
         <v>174275</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="5">
         <v>0.05</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="9">
         <v>3581</v>
       </c>
       <c r="J27" s="4">
@@ -3373,25 +3380,25 @@
       <c r="K27" s="4">
         <v>19583</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="8">
         <v>16812</v>
       </c>
       <c r="M27">
         <v>642</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="8">
         <v>140844</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="8">
         <v>3953</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="9">
         <v>23695</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="Q27" s="5">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="R27" s="7">
+      <c r="R27" s="9">
         <v>2274</v>
       </c>
       <c r="S27" s="3">
@@ -3400,7 +3407,7 @@
       <c r="T27" s="2">
         <v>4562</v>
       </c>
-      <c r="U27" s="9">
+      <c r="U27" s="6">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="V27">
@@ -3409,10 +3416,10 @@
       <c r="W27">
         <v>154</v>
       </c>
-      <c r="X27" s="6">
+      <c r="X27" s="8">
         <v>16689</v>
       </c>
-      <c r="Y27" s="9">
+      <c r="Y27" s="6">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="Z27">
@@ -3450,28 +3457,28 @@
       <c r="A28" s="1">
         <v>44131</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="8">
         <v>43814324</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="9">
         <v>1163938</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="8">
         <v>8759939</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="8">
         <v>226436</v>
       </c>
       <c r="G28" s="4">
         <v>175409</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="5">
         <v>0.05</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="9">
         <v>3600</v>
       </c>
       <c r="J28" s="4">
@@ -3480,25 +3487,25 @@
       <c r="K28" s="4">
         <v>19702</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="8">
         <v>16906</v>
       </c>
       <c r="M28">
         <v>644</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="8">
         <v>141741</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="8">
         <v>3962</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="9">
         <v>23769</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="Q28" s="5">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="R28" s="7">
+      <c r="R28" s="9">
         <v>2285</v>
       </c>
       <c r="S28" s="3">
@@ -3507,7 +3514,7 @@
       <c r="T28" s="2">
         <v>4586</v>
       </c>
-      <c r="U28" s="9">
+      <c r="U28" s="6">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="V28">
@@ -3516,10 +3523,10 @@
       <c r="W28">
         <v>154</v>
       </c>
-      <c r="X28" s="6">
+      <c r="X28" s="8">
         <v>16849</v>
       </c>
-      <c r="Y28" s="9">
+      <c r="Y28" s="6">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="Z28">
@@ -3557,28 +3564,28 @@
       <c r="A29" s="1">
         <v>44132</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="8">
         <v>44311674</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="9">
         <v>1171286</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="8">
         <v>8836861</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="8">
         <v>227409</v>
       </c>
       <c r="G29" s="4">
         <v>176754</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="5">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="9">
         <v>3616</v>
       </c>
       <c r="J29" s="4">
@@ -3587,25 +3594,25 @@
       <c r="K29" s="4">
         <v>19786</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="8">
         <v>16973</v>
       </c>
       <c r="M29">
         <v>644</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="8">
         <v>142425</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="8">
         <v>3969</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="9">
         <v>23882</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="Q29" s="5">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="R29" s="7">
+      <c r="R29" s="9">
         <v>2293</v>
       </c>
       <c r="S29" s="3">
@@ -3614,7 +3621,7 @@
       <c r="T29" s="2">
         <v>4630</v>
       </c>
-      <c r="U29" s="9">
+      <c r="U29" s="6">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="V29">
@@ -3623,10 +3630,10 @@
       <c r="W29">
         <v>154</v>
       </c>
-      <c r="X29" s="6">
+      <c r="X29" s="8">
         <v>16928</v>
       </c>
-      <c r="Y29" s="9">
+      <c r="Y29" s="6">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="Z29">
@@ -3664,28 +3671,28 @@
       <c r="A30" s="1">
         <v>44133</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="8">
         <v>44908477</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="9">
         <v>1179278</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="8">
         <v>8943577</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="8">
         <v>228636</v>
       </c>
       <c r="G30" s="4">
         <v>178183</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="5">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="9">
         <v>3636</v>
       </c>
       <c r="J30" s="4">
@@ -3694,25 +3701,25 @@
       <c r="K30" s="4">
         <v>19832</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="8">
         <v>17074</v>
       </c>
       <c r="M30">
         <v>645</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="8">
         <v>143387</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="8">
         <v>3980</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P30" s="9">
         <v>24067</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="Q30" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="R30" s="7">
+      <c r="R30" s="9">
         <v>2298</v>
       </c>
       <c r="S30" s="3">
@@ -3721,7 +3728,7 @@
       <c r="T30" s="2">
         <v>4647</v>
       </c>
-      <c r="U30" s="9">
+      <c r="U30" s="6">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="V30">
@@ -3730,10 +3737,10 @@
       <c r="W30">
         <v>154</v>
       </c>
-      <c r="X30" s="6">
+      <c r="X30" s="8">
         <v>17053</v>
       </c>
-      <c r="Y30" s="9">
+      <c r="Y30" s="6">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="Z30">
@@ -3771,28 +3778,28 @@
       <c r="A31" s="1">
         <v>44134</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="6" t="s">
+      <c r="B31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" s="7" t="s">
+      <c r="H31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J31" s="4" t="s">
@@ -3801,25 +3808,25 @@
       <c r="K31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M31" t="s">
         <v>35</v>
       </c>
-      <c r="N31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q31" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R31" s="7" t="s">
+      <c r="N31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R31" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S31" s="3" t="s">
@@ -3828,7 +3835,7 @@
       <c r="T31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U31" s="9" t="s">
+      <c r="U31" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V31" t="s">
@@ -3837,10 +3844,10 @@
       <c r="W31" t="s">
         <v>35</v>
       </c>
-      <c r="X31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y31" s="9" t="s">
+      <c r="X31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y31" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z31" t="s">
@@ -3878,28 +3885,28 @@
       <c r="A32" s="1">
         <v>44135</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="6" t="s">
+      <c r="B32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" s="7" t="s">
+      <c r="H32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J32" s="4" t="s">
@@ -3908,25 +3915,25 @@
       <c r="K32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M32" t="s">
         <v>35</v>
       </c>
-      <c r="N32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q32" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R32" s="7" t="s">
+      <c r="N32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R32" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S32" s="3" t="s">
@@ -3935,7 +3942,7 @@
       <c r="T32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U32" s="9" t="s">
+      <c r="U32" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V32" t="s">
@@ -3944,10 +3951,10 @@
       <c r="W32" t="s">
         <v>35</v>
       </c>
-      <c r="X32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y32" s="9" t="s">
+      <c r="X32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y32" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z32" t="s">
@@ -3985,28 +3992,28 @@
       <c r="A33" s="1">
         <v>44136</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="8">
         <v>46426677</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="9">
         <v>1199684</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="8">
         <v>9200643</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="8">
         <v>230967</v>
       </c>
       <c r="G33" s="4">
         <v>182392</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="5">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="9">
         <v>3655</v>
       </c>
       <c r="J33" s="4">
@@ -4015,25 +4022,25 @@
       <c r="K33" s="4">
         <v>20044</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="8">
         <v>17369</v>
       </c>
       <c r="M33">
         <v>646</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="8">
         <v>146145</v>
       </c>
-      <c r="O33" s="6">
+      <c r="O33" s="8">
         <v>4004</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="9">
         <v>24475</v>
       </c>
-      <c r="Q33" s="8">
+      <c r="Q33" s="5">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="R33" s="7">
+      <c r="R33" s="9">
         <v>2314</v>
       </c>
       <c r="S33" s="3">
@@ -4042,7 +4049,7 @@
       <c r="T33" s="2">
         <v>4764</v>
       </c>
-      <c r="U33" s="9">
+      <c r="U33" s="6">
         <v>3.9E-2</v>
       </c>
       <c r="V33">
@@ -4051,10 +4058,10 @@
       <c r="W33">
         <v>154</v>
       </c>
-      <c r="X33" s="6">
+      <c r="X33" s="8">
         <v>17269</v>
       </c>
-      <c r="Y33" s="9">
+      <c r="Y33" s="6">
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="Z33">
@@ -4092,28 +4099,28 @@
       <c r="A34" s="1">
         <v>44137</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="6" t="s">
+      <c r="B34" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I34" s="7" t="s">
+      <c r="H34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J34" s="4" t="s">
@@ -4122,25 +4129,25 @@
       <c r="K34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="L34" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M34" t="s">
         <v>35</v>
       </c>
-      <c r="N34" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q34" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R34" s="7" t="s">
+      <c r="N34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R34" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S34" s="3" t="s">
@@ -4149,7 +4156,7 @@
       <c r="T34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U34" s="9" t="s">
+      <c r="U34" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V34" t="s">
@@ -4158,10 +4165,10 @@
       <c r="W34" t="s">
         <v>35</v>
       </c>
-      <c r="X34" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y34" s="9" t="s">
+      <c r="X34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y34" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z34" t="s">
@@ -4199,28 +4206,28 @@
       <c r="A35" s="1">
         <v>44138</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="8">
         <v>47235585</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="9">
         <v>1210335</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="8">
         <v>9344717</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="8">
         <v>232173</v>
       </c>
       <c r="G35" s="4">
         <v>184679</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="5">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="9">
         <v>3666</v>
       </c>
       <c r="J35" s="4">
@@ -4229,25 +4236,25 @@
       <c r="K35" s="4">
         <v>20306</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L35" s="8">
         <v>17524</v>
       </c>
       <c r="M35">
         <v>647</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="8">
         <v>147766</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="8">
         <v>4015</v>
       </c>
-      <c r="P35" s="7">
+      <c r="P35" s="9">
         <v>24701</v>
       </c>
-      <c r="Q35" s="8">
+      <c r="Q35" s="5">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R35" s="7">
+      <c r="R35" s="9">
         <v>2323</v>
       </c>
       <c r="S35" s="3">
@@ -4256,7 +4263,7 @@
       <c r="T35" s="2">
         <v>4813</v>
       </c>
-      <c r="U35" s="9">
+      <c r="U35" s="6">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="V35">
@@ -4265,10 +4272,10 @@
       <c r="W35">
         <v>154</v>
       </c>
-      <c r="X35" s="6">
+      <c r="X35" s="8">
         <v>17496</v>
       </c>
-      <c r="Y35" s="9">
+      <c r="Y35" s="6">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="Z35">
@@ -4306,28 +4313,28 @@
       <c r="A36" s="1">
         <v>44139</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="8">
         <v>47997816</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="9">
         <v>1223456</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="8">
         <v>9477709</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="8">
         <v>233651</v>
       </c>
       <c r="G36" s="4">
         <v>185836</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="5">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="9">
         <v>3677</v>
       </c>
       <c r="J36" s="4">
@@ -4336,25 +4343,25 @@
       <c r="K36" s="4">
         <v>20327</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="8">
         <v>17601</v>
       </c>
       <c r="M36">
         <v>647</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="8">
         <v>148766</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="8">
         <v>4025</v>
       </c>
-      <c r="P36" s="7">
+      <c r="P36" s="9">
         <v>24833</v>
       </c>
-      <c r="Q36" s="8">
+      <c r="Q36" s="5">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="R36" s="7">
+      <c r="R36" s="9">
         <v>2327</v>
       </c>
       <c r="S36" s="3">
@@ -4363,7 +4370,7 @@
       <c r="T36" s="2">
         <v>4854</v>
       </c>
-      <c r="U36" s="9">
+      <c r="U36" s="6">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="V36">
@@ -4372,10 +4379,10 @@
       <c r="W36">
         <v>154</v>
       </c>
-      <c r="X36" s="6">
+      <c r="X36" s="8">
         <v>17564</v>
       </c>
-      <c r="Y36" s="9">
+      <c r="Y36" s="6">
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="Z36">
@@ -4413,28 +4420,28 @@
       <c r="A37" s="1">
         <v>44140</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="8">
         <v>48541340</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="9">
         <v>1230600</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="8">
         <v>9586656</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="8">
         <v>234777</v>
       </c>
       <c r="G37" s="4">
         <v>187202</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="5">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="9">
         <v>3688</v>
       </c>
       <c r="J37" s="4">
@@ -4443,25 +4450,25 @@
       <c r="K37" s="4">
         <v>21289</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="8">
         <v>17682</v>
       </c>
       <c r="M37">
         <v>650</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N37" s="8">
         <v>149964</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37" s="8">
         <v>4035</v>
       </c>
-      <c r="P37" s="7">
+      <c r="P37" s="9">
         <v>24969</v>
       </c>
-      <c r="Q37" s="8">
+      <c r="Q37" s="5">
         <v>5.5E-2</v>
       </c>
-      <c r="R37" s="7">
+      <c r="R37" s="9">
         <v>2342</v>
       </c>
       <c r="S37" s="3">
@@ -4470,7 +4477,7 @@
       <c r="T37" s="2">
         <v>4872</v>
       </c>
-      <c r="U37" s="9">
+      <c r="U37" s="6">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="V37">
@@ -4479,10 +4486,10 @@
       <c r="W37">
         <v>154</v>
       </c>
-      <c r="X37" s="6">
+      <c r="X37" s="8">
         <v>17660</v>
       </c>
-      <c r="Y37" s="9">
+      <c r="Y37" s="6">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="Z37">
@@ -4520,28 +4527,28 @@
       <c r="A38" s="1">
         <v>44141</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="B38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I38" s="7" t="s">
+      <c r="H38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J38" s="4" t="s">
@@ -4550,25 +4557,25 @@
       <c r="K38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L38" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M38" t="s">
         <v>35</v>
       </c>
-      <c r="N38" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O38" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q38" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R38" s="7" t="s">
+      <c r="N38" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R38" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S38" s="3" t="s">
@@ -4577,7 +4584,7 @@
       <c r="T38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U38" s="9" t="s">
+      <c r="U38" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V38" t="s">
@@ -4586,10 +4593,10 @@
       <c r="W38" t="s">
         <v>35</v>
       </c>
-      <c r="X38" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y38" s="9" t="s">
+      <c r="X38" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y38" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z38" t="s">
@@ -4627,28 +4634,28 @@
       <c r="A39" s="1">
         <v>44142</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="6" t="s">
+      <c r="B39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H39" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I39" s="7" t="s">
+      <c r="H39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J39" s="4" t="s">
@@ -4657,25 +4664,25 @@
       <c r="K39" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="L39" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M39" t="s">
         <v>35</v>
       </c>
-      <c r="N39" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q39" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R39" s="7" t="s">
+      <c r="N39" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R39" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S39" s="3" t="s">
@@ -4684,7 +4691,7 @@
       <c r="T39" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U39" s="9" t="s">
+      <c r="U39" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V39" t="s">
@@ -4693,10 +4700,10 @@
       <c r="W39" t="s">
         <v>35</v>
       </c>
-      <c r="X39" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y39" s="9" t="s">
+      <c r="X39" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y39" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z39" t="s">
@@ -4734,28 +4741,28 @@
       <c r="A40" s="1">
         <v>44143</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="7">
         <v>0.875</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="8">
         <v>50316476</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="9">
         <v>1255250</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="8">
         <v>9961320</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="8">
         <v>237566</v>
       </c>
       <c r="G40" s="4">
         <v>192175</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="5">
         <v>0.06</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="9">
         <v>3707</v>
       </c>
       <c r="J40" s="4">
@@ -4764,25 +4771,25 @@
       <c r="K40" s="4">
         <v>21494</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L40" s="8">
         <v>18001</v>
       </c>
       <c r="M40">
         <v>654</v>
       </c>
-      <c r="N40" s="6">
+      <c r="N40" s="8">
         <v>153996</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="8">
         <v>4063</v>
       </c>
-      <c r="P40" s="7">
+      <c r="P40" s="9">
         <v>25555</v>
       </c>
-      <c r="Q40" s="8">
+      <c r="Q40" s="5">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="R40" s="7">
+      <c r="R40" s="9">
         <v>2366</v>
       </c>
       <c r="S40" s="3">
@@ -4791,7 +4798,7 @@
       <c r="T40" s="2">
         <v>5036</v>
       </c>
-      <c r="U40" s="9">
+      <c r="U40" s="6">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="V40">
@@ -4800,10 +4807,10 @@
       <c r="W40">
         <v>155</v>
       </c>
-      <c r="X40" s="6">
+      <c r="X40" s="8">
         <v>17972</v>
       </c>
-      <c r="Y40" s="9">
+      <c r="Y40" s="6">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="Z40">
@@ -4841,28 +4848,28 @@
       <c r="A41" s="1">
         <v>44144</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="8">
         <v>50768019</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="9">
         <v>1260990</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="8">
         <v>10044002</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="8">
         <v>237860</v>
       </c>
       <c r="G41" s="4">
         <v>193477</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="5">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="9">
         <v>3713</v>
       </c>
       <c r="J41" s="4">
@@ -4871,25 +4878,25 @@
       <c r="K41" s="4">
         <v>21618</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="8">
         <v>18087</v>
       </c>
       <c r="M41">
         <v>655</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="8">
         <v>155371</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="8">
         <v>4072</v>
       </c>
-      <c r="P41" s="7">
+      <c r="P41" s="9">
         <v>25715</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="Q41" s="5">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="R41" s="7">
+      <c r="R41" s="9">
         <v>2377</v>
       </c>
       <c r="S41" s="3">
@@ -4898,7 +4905,7 @@
       <c r="T41" s="2">
         <v>5060</v>
       </c>
-      <c r="U41" s="9">
+      <c r="U41" s="6">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="V41">
@@ -4907,10 +4914,10 @@
       <c r="W41">
         <v>155</v>
       </c>
-      <c r="X41" s="6">
+      <c r="X41" s="8">
         <v>18067</v>
       </c>
-      <c r="Y41" s="9">
+      <c r="Y41" s="6">
         <v>7.8E-2</v>
       </c>
       <c r="Z41">
@@ -4948,28 +4955,28 @@
       <c r="A42" s="1">
         <v>44145</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="8">
         <v>51284467</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="9">
         <v>1268890</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="8">
         <v>10205207</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="8">
         <v>239306</v>
       </c>
       <c r="G42" s="4">
         <v>194912</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="5">
         <v>6.2E-2</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="9">
         <v>3726</v>
       </c>
       <c r="J42" s="4">
@@ -4978,25 +4985,25 @@
       <c r="K42" s="4">
         <v>21716</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="8">
         <v>18173</v>
       </c>
       <c r="M42">
         <v>657</v>
       </c>
-      <c r="N42" s="6">
+      <c r="N42" s="8">
         <v>156709</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="8">
         <v>4084</v>
       </c>
-      <c r="P42" s="7">
+      <c r="P42" s="9">
         <v>25846</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="Q42" s="5">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="R42" s="7">
+      <c r="R42" s="9">
         <v>2383</v>
       </c>
       <c r="S42" s="3">
@@ -5005,7 +5012,7 @@
       <c r="T42" s="2">
         <v>5093</v>
       </c>
-      <c r="U42" s="9">
+      <c r="U42" s="6">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="V42">
@@ -5014,10 +5021,10 @@
       <c r="W42">
         <v>155</v>
       </c>
-      <c r="X42" s="6">
+      <c r="X42" s="8">
         <v>18154</v>
       </c>
-      <c r="Y42" s="9">
+      <c r="Y42" s="6">
         <v>0.08</v>
       </c>
       <c r="Z42">
@@ -5055,28 +5062,28 @@
       <c r="A43" s="1">
         <v>44146</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="8">
         <v>51938291</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="9">
         <v>1280835</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="8">
         <v>10361918</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="8">
         <v>240782</v>
       </c>
       <c r="G43" s="4">
         <v>196506</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="5">
         <v>6.2E-2</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="9">
         <v>3741</v>
       </c>
       <c r="J43" s="4">
@@ -5085,25 +5092,25 @@
       <c r="K43" s="4">
         <v>21863</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="8">
         <v>18379</v>
       </c>
       <c r="M43">
         <v>657</v>
       </c>
-      <c r="N43" s="6">
+      <c r="N43" s="8">
         <v>158423</v>
       </c>
-      <c r="O43" s="6">
+      <c r="O43" s="8">
         <v>4100</v>
       </c>
-      <c r="P43" s="7">
+      <c r="P43" s="9">
         <v>26051</v>
       </c>
-      <c r="Q43" s="8">
+      <c r="Q43" s="5">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="R43" s="7">
+      <c r="R43" s="9">
         <v>2390</v>
       </c>
       <c r="S43" s="3">
@@ -5112,7 +5119,7 @@
       <c r="T43" s="2">
         <v>5130</v>
       </c>
-      <c r="U43" s="9">
+      <c r="U43" s="6">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="V43">
@@ -5121,10 +5128,10 @@
       <c r="W43">
         <v>155</v>
       </c>
-      <c r="X43" s="6">
+      <c r="X43" s="8">
         <v>18254</v>
       </c>
-      <c r="Y43" s="9">
+      <c r="Y43" s="6">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="Z43">
@@ -5162,28 +5169,28 @@
       <c r="A44" s="1">
         <v>44147</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="8">
         <v>52552983</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="9">
         <v>1290217</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="8">
         <v>10513068</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="8">
         <v>242527</v>
       </c>
       <c r="G44" s="4">
         <v>198027</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="5">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="9">
         <v>3758</v>
       </c>
       <c r="J44" s="4">
@@ -5192,25 +5199,25 @@
       <c r="K44" s="4">
         <v>22002</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="8">
         <v>18507</v>
       </c>
       <c r="M44">
         <v>657</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N44" s="8">
         <v>159900</v>
       </c>
-      <c r="O44" s="6">
+      <c r="O44" s="8">
         <v>4112</v>
       </c>
-      <c r="P44" s="7">
+      <c r="P44" s="9">
         <v>26265</v>
       </c>
-      <c r="Q44" s="8">
+      <c r="Q44" s="5">
         <v>6.2E-2</v>
       </c>
-      <c r="R44" s="7">
+      <c r="R44" s="9">
         <v>2409</v>
       </c>
       <c r="S44" s="3">
@@ -5219,7 +5226,7 @@
       <c r="T44" s="2">
         <v>5158</v>
       </c>
-      <c r="U44" s="9">
+      <c r="U44" s="6">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="V44">
@@ -5228,10 +5235,10 @@
       <c r="W44">
         <v>155</v>
       </c>
-      <c r="X44" s="6">
+      <c r="X44" s="8">
         <v>18341</v>
       </c>
-      <c r="Y44" s="9">
+      <c r="Y44" s="6">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="Z44">
@@ -5269,28 +5276,28 @@
       <c r="A45" s="1">
         <v>44148</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" s="6" t="s">
+      <c r="B45" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H45" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I45" s="7" t="s">
+      <c r="H45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J45" s="4" t="s">
@@ -5299,25 +5306,25 @@
       <c r="K45" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="L45" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M45" t="s">
         <v>35</v>
       </c>
-      <c r="N45" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q45" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R45" s="7" t="s">
+      <c r="N45" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R45" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S45" s="3" t="s">
@@ -5326,7 +5333,7 @@
       <c r="T45" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U45" s="9" t="s">
+      <c r="U45" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V45" t="s">
@@ -5335,10 +5342,10 @@
       <c r="W45" t="s">
         <v>35</v>
       </c>
-      <c r="X45" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y45" s="9" t="s">
+      <c r="X45" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y45" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z45" t="s">
@@ -5376,28 +5383,28 @@
       <c r="A46" s="1">
         <v>44149</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46" s="6" t="s">
+      <c r="B46" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H46" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I46" s="7" t="s">
+      <c r="H46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J46" s="4" t="s">
@@ -5406,25 +5413,25 @@
       <c r="K46" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L46" s="6" t="s">
+      <c r="L46" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M46" t="s">
         <v>35</v>
       </c>
-      <c r="N46" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O46" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q46" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R46" s="7" t="s">
+      <c r="N46" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P46" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R46" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S46" s="3" t="s">
@@ -5433,7 +5440,7 @@
       <c r="T46" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U46" s="9" t="s">
+      <c r="U46" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V46" t="s">
@@ -5442,10 +5449,10 @@
       <c r="W46" t="s">
         <v>35</v>
       </c>
-      <c r="X46" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y46" s="9" t="s">
+      <c r="X46" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y46" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z46" t="s">
@@ -5483,28 +5490,28 @@
       <c r="A47" s="1">
         <v>44150</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="8">
         <v>54251464</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="9">
         <v>1315291</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="8">
         <v>10997978</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="8">
         <v>245979</v>
       </c>
       <c r="G47" s="4">
         <v>201960</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="9">
         <v>3800</v>
       </c>
       <c r="J47" s="4">
@@ -5513,25 +5520,25 @@
       <c r="K47" s="4">
         <v>22252</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L47" s="8">
         <v>18977</v>
       </c>
       <c r="M47">
         <v>660</v>
       </c>
-      <c r="N47" s="6">
+      <c r="N47" s="8">
         <v>165930</v>
       </c>
-      <c r="O47" s="6">
+      <c r="O47" s="8">
         <v>4153</v>
       </c>
-      <c r="P47" s="7">
+      <c r="P47" s="9">
         <v>26695</v>
       </c>
-      <c r="Q47" s="8">
+      <c r="Q47" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="R47" s="7">
+      <c r="R47" s="9">
         <v>2433</v>
       </c>
       <c r="S47" s="3">
@@ -5540,7 +5547,7 @@
       <c r="T47" s="2">
         <v>5298</v>
       </c>
-      <c r="U47" s="9">
+      <c r="U47" s="6">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="V47">
@@ -5549,10 +5556,10 @@
       <c r="W47">
         <v>157</v>
       </c>
-      <c r="X47" s="6">
+      <c r="X47" s="8">
         <v>18594</v>
       </c>
-      <c r="Y47" s="9">
+      <c r="Y47" s="6">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="Z47">
@@ -5590,28 +5597,28 @@
       <c r="A48" s="1">
         <v>44151</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="8">
         <v>54750781</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="9">
         <v>1322020</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="8">
         <v>11147299</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="8">
         <v>246854</v>
       </c>
       <c r="G48" s="4">
         <v>204637</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="5">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="9">
         <v>3806</v>
       </c>
       <c r="J48" s="4">
@@ -5620,25 +5627,25 @@
       <c r="K48" s="4">
         <v>22362</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L48" s="8">
         <v>19064</v>
       </c>
       <c r="M48">
         <v>660</v>
       </c>
-      <c r="N48" s="6">
+      <c r="N48" s="8">
         <v>167656</v>
       </c>
-      <c r="O48" s="6">
+      <c r="O48" s="8">
         <v>4160</v>
       </c>
-      <c r="P48" s="7">
+      <c r="P48" s="9">
         <v>27095</v>
       </c>
-      <c r="Q48" s="8">
+      <c r="Q48" s="5">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="R48" s="7">
+      <c r="R48" s="9">
         <v>2440</v>
       </c>
       <c r="S48" s="3">
@@ -5647,7 +5654,7 @@
       <c r="T48" s="2">
         <v>5380</v>
       </c>
-      <c r="U48" s="9">
+      <c r="U48" s="6">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="V48">
@@ -5656,10 +5663,10 @@
       <c r="W48">
         <v>157</v>
       </c>
-      <c r="X48" s="6">
+      <c r="X48" s="8">
         <v>18807</v>
       </c>
-      <c r="Y48" s="9">
+      <c r="Y48" s="6">
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="Z48">
@@ -5697,28 +5704,28 @@
       <c r="A49" s="1">
         <v>44152</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="8">
         <v>55386704</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="9">
         <v>1333479</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="8">
         <v>11289297</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="8">
         <v>248001</v>
       </c>
       <c r="G49" s="4">
         <v>206762</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="5">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="9">
         <v>3835</v>
       </c>
       <c r="J49" s="4">
@@ -5727,25 +5734,25 @@
       <c r="K49" s="4">
         <v>22466</v>
       </c>
-      <c r="L49" s="6">
+      <c r="L49" s="8">
         <v>19309</v>
       </c>
       <c r="M49">
         <v>660</v>
       </c>
-      <c r="N49" s="6">
+      <c r="N49" s="8">
         <v>169805</v>
       </c>
-      <c r="O49" s="6">
+      <c r="O49" s="8">
         <v>4186</v>
       </c>
-      <c r="P49" s="7">
+      <c r="P49" s="9">
         <v>27291</v>
       </c>
-      <c r="Q49" s="8">
+      <c r="Q49" s="5">
         <v>7.8E-2</v>
       </c>
-      <c r="R49" s="7">
+      <c r="R49" s="9">
         <v>2447</v>
       </c>
       <c r="S49" s="3">
@@ -5754,7 +5761,7 @@
       <c r="T49" s="2">
         <v>5454</v>
       </c>
-      <c r="U49" s="9">
+      <c r="U49" s="6">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="V49">
@@ -5763,10 +5770,10 @@
       <c r="W49">
         <v>157</v>
       </c>
-      <c r="X49" s="6">
+      <c r="X49" s="8">
         <v>18965</v>
       </c>
-      <c r="Y49" s="9">
+      <c r="Y49" s="6">
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="Z49">
@@ -5804,28 +5811,28 @@
       <c r="A50" s="1">
         <v>44153</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="8">
         <v>56051621</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="9">
         <v>1345851</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="8">
         <v>11468739</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="8">
         <v>249935</v>
       </c>
       <c r="G50" s="4">
         <v>208833</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="5">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="9">
         <v>3860</v>
       </c>
       <c r="J50" s="4">
@@ -5834,25 +5841,25 @@
       <c r="K50" s="4">
         <v>22594</v>
       </c>
-      <c r="L50" s="6">
+      <c r="L50" s="8">
         <v>19465</v>
       </c>
       <c r="M50">
         <v>665</v>
       </c>
-      <c r="N50" s="6">
+      <c r="N50" s="8">
         <v>171823</v>
       </c>
-      <c r="O50" s="6">
+      <c r="O50" s="8">
         <v>4201</v>
       </c>
-      <c r="P50" s="7">
+      <c r="P50" s="9">
         <v>27545</v>
       </c>
-      <c r="Q50" s="8">
+      <c r="Q50" s="5">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="R50" s="7">
+      <c r="R50" s="9">
         <v>2462</v>
       </c>
       <c r="S50" s="3">
@@ -5861,7 +5868,7 @@
       <c r="T50" s="2">
         <v>5512</v>
       </c>
-      <c r="U50" s="9">
+      <c r="U50" s="6">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="V50">
@@ -5870,10 +5877,10 @@
       <c r="W50">
         <v>156</v>
       </c>
-      <c r="X50" s="6">
+      <c r="X50" s="8">
         <v>19140</v>
       </c>
-      <c r="Y50" s="9">
+      <c r="Y50" s="6">
         <v>0.108</v>
       </c>
       <c r="Z50">
@@ -5911,28 +5918,28 @@
       <c r="A51" s="1">
         <v>44154</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="8">
         <v>56684638</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="9">
         <v>1356365</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="8">
         <v>11647930</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="8">
         <v>251756</v>
       </c>
       <c r="G51" s="4">
         <v>210787</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="5">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="9">
         <v>3896</v>
       </c>
       <c r="J51" s="4">
@@ -5941,25 +5948,25 @@
       <c r="K51" s="4">
         <v>22858</v>
       </c>
-      <c r="L51" s="6">
+      <c r="L51" s="8">
         <v>19678</v>
       </c>
       <c r="M51">
         <v>667</v>
       </c>
-      <c r="N51" s="6">
+      <c r="N51" s="8">
         <v>174733</v>
       </c>
-      <c r="O51" s="6">
+      <c r="O51" s="8">
         <v>4220</v>
       </c>
-      <c r="P51" s="7">
+      <c r="P51" s="9">
         <v>27752</v>
       </c>
-      <c r="Q51" s="8">
+      <c r="Q51" s="5">
         <v>0.08</v>
       </c>
-      <c r="R51" s="7">
+      <c r="R51" s="9">
         <v>2478</v>
       </c>
       <c r="S51" s="3">
@@ -5968,7 +5975,7 @@
       <c r="T51" s="2">
         <v>5544</v>
       </c>
-      <c r="U51" s="9">
+      <c r="U51" s="6">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="V51">
@@ -5977,10 +5984,10 @@
       <c r="W51">
         <v>156</v>
       </c>
-      <c r="X51" s="6">
+      <c r="X51" s="8">
         <v>19297</v>
       </c>
-      <c r="Y51" s="9">
+      <c r="Y51" s="6">
         <v>0.108</v>
       </c>
       <c r="Z51">
@@ -6018,28 +6025,28 @@
       <c r="A52" s="1">
         <v>44155</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F52" s="6" t="s">
+      <c r="B52" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H52" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I52" s="7" t="s">
+      <c r="H52" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J52" s="4" t="s">
@@ -6048,25 +6055,25 @@
       <c r="K52" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L52" s="6" t="s">
+      <c r="L52" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M52" t="s">
         <v>35</v>
       </c>
-      <c r="N52" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O52" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q52" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R52" s="7" t="s">
+      <c r="N52" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P52" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R52" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S52" s="3" t="s">
@@ -6075,7 +6082,7 @@
       <c r="T52" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U52" s="9" t="s">
+      <c r="U52" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V52" t="s">
@@ -6084,10 +6091,10 @@
       <c r="W52" t="s">
         <v>35</v>
       </c>
-      <c r="X52" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y52" s="9" t="s">
+      <c r="X52" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y52" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z52" t="s">
@@ -6125,28 +6132,28 @@
       <c r="A53" s="1">
         <v>44156</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F53" s="6" t="s">
+      <c r="B53" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H53" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I53" s="7" t="s">
+      <c r="H53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J53" s="4" t="s">
@@ -6155,25 +6162,25 @@
       <c r="K53" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L53" s="6" t="s">
+      <c r="L53" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M53" t="s">
         <v>35</v>
       </c>
-      <c r="N53" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O53" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q53" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R53" s="7" t="s">
+      <c r="N53" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P53" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R53" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S53" s="3" t="s">
@@ -6182,7 +6189,7 @@
       <c r="T53" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U53" s="9" t="s">
+      <c r="U53" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V53" t="s">
@@ -6191,10 +6198,10 @@
       <c r="W53" t="s">
         <v>35</v>
       </c>
-      <c r="X53" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y53" s="9" t="s">
+      <c r="X53" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y53" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z53" t="s">
@@ -6232,28 +6239,28 @@
       <c r="A54" s="1">
         <v>44157</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="8">
         <v>58503510</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="9">
         <v>1385632</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="8">
         <v>12207135</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="8">
         <v>256638</v>
       </c>
       <c r="G54" s="4">
         <v>217796</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="5">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="9">
         <v>3938</v>
       </c>
       <c r="J54" s="4">
@@ -6262,25 +6269,25 @@
       <c r="K54" s="4">
         <v>23133</v>
       </c>
-      <c r="L54" s="6">
+      <c r="L54" s="8">
         <v>20151</v>
       </c>
       <c r="M54">
         <v>670</v>
       </c>
-      <c r="N54" s="6">
+      <c r="N54" s="8">
         <v>182139</v>
       </c>
-      <c r="O54" s="6">
+      <c r="O54" s="8">
         <v>4279</v>
       </c>
-      <c r="P54" s="7">
+      <c r="P54" s="9">
         <v>28634</v>
       </c>
-      <c r="Q54" s="8">
+      <c r="Q54" s="5">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="R54" s="7">
+      <c r="R54" s="9">
         <v>2503</v>
       </c>
       <c r="S54" s="3">
@@ -6289,7 +6296,7 @@
       <c r="T54" s="2">
         <v>5758</v>
       </c>
-      <c r="U54" s="9">
+      <c r="U54" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="V54">
@@ -6298,10 +6305,10 @@
       <c r="W54">
         <v>156</v>
       </c>
-      <c r="X54" s="6">
+      <c r="X54" s="8">
         <v>19667</v>
       </c>
-      <c r="Y54" s="9">
+      <c r="Y54" s="6">
         <v>0.105</v>
       </c>
       <c r="Z54">
@@ -6339,28 +6346,28 @@
       <c r="A55" s="1">
         <v>44158</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="8">
         <v>59025871</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="9">
         <v>1393886</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="8">
         <v>12369978</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="8">
         <v>257415</v>
       </c>
       <c r="G55" s="4">
         <v>221038</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="9">
         <v>3942</v>
       </c>
       <c r="J55" s="4">
@@ -6369,25 +6376,25 @@
       <c r="K55" s="4">
         <v>23253</v>
       </c>
-      <c r="L55" s="6">
+      <c r="L55" s="8">
         <v>20290</v>
       </c>
       <c r="M55">
         <v>672</v>
       </c>
-      <c r="N55" s="6">
+      <c r="N55" s="8">
         <v>183797</v>
       </c>
-      <c r="O55" s="6">
+      <c r="O55" s="8">
         <v>4293</v>
       </c>
-      <c r="P55" s="7">
+      <c r="P55" s="9">
         <v>29089</v>
       </c>
-      <c r="Q55" s="8">
+      <c r="Q55" s="5">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="R55" s="7">
+      <c r="R55" s="9">
         <v>2505</v>
       </c>
       <c r="S55" s="3">
@@ -6396,7 +6403,7 @@
       <c r="T55" s="2">
         <v>5856</v>
       </c>
-      <c r="U55" s="9">
+      <c r="U55" s="6">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="V55">
@@ -6405,10 +6412,10 @@
       <c r="W55">
         <v>157</v>
       </c>
-      <c r="X55" s="6">
+      <c r="X55" s="8">
         <v>19877</v>
       </c>
-      <c r="Y55" s="9">
+      <c r="Y55" s="6">
         <v>0.107</v>
       </c>
       <c r="Z55">
@@ -6446,28 +6453,28 @@
       <c r="A56" s="1">
         <v>44159</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F56" s="6" t="s">
+      <c r="B56" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H56" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I56" s="7" t="s">
+      <c r="H56" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J56" s="4" t="s">
@@ -6476,25 +6483,25 @@
       <c r="K56" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L56" s="6" t="s">
+      <c r="L56" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M56" t="s">
         <v>35</v>
       </c>
-      <c r="N56" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O56" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q56" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R56" s="7" t="s">
+      <c r="N56" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R56" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S56" s="3" t="s">
@@ -6503,7 +6510,7 @@
       <c r="T56" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U56" s="9" t="s">
+      <c r="U56" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V56" t="s">
@@ -6512,10 +6519,10 @@
       <c r="W56" t="s">
         <v>35</v>
       </c>
-      <c r="X56" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y56" s="9" t="s">
+      <c r="X56" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y56" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z56" t="s">
@@ -6553,28 +6560,28 @@
       <c r="A57" s="1">
         <v>44160</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F57" s="6" t="s">
+      <c r="B57" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H57" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I57" s="7" t="s">
+      <c r="H57" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J57" s="4" t="s">
@@ -6583,25 +6590,25 @@
       <c r="K57" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L57" s="6" t="s">
+      <c r="L57" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M57" t="s">
         <v>35</v>
       </c>
-      <c r="N57" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O57" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q57" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R57" s="7" t="s">
+      <c r="N57" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P57" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R57" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S57" s="3" t="s">
@@ -6610,7 +6617,7 @@
       <c r="T57" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U57" s="9" t="s">
+      <c r="U57" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V57" t="s">
@@ -6619,10 +6626,10 @@
       <c r="W57" t="s">
         <v>35</v>
       </c>
-      <c r="X57" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y57" s="9" t="s">
+      <c r="X57" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y57" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z57" t="s">
@@ -6660,28 +6667,28 @@
       <c r="A58" s="1">
         <v>44161</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F58" s="6" t="s">
+      <c r="B58" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H58" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I58" s="7" t="s">
+      <c r="H58" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J58" s="4" t="s">
@@ -6690,25 +6697,25 @@
       <c r="K58" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L58" s="6" t="s">
+      <c r="L58" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M58" t="s">
         <v>35</v>
       </c>
-      <c r="N58" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O58" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P58" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q58" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R58" s="7" t="s">
+      <c r="N58" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P58" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R58" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S58" s="3" t="s">
@@ -6717,7 +6724,7 @@
       <c r="T58" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U58" s="9" t="s">
+      <c r="U58" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V58" t="s">
@@ -6726,10 +6733,10 @@
       <c r="W58" t="s">
         <v>35</v>
       </c>
-      <c r="X58" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y58" s="9" t="s">
+      <c r="X58" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y58" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z58" t="s">
@@ -6767,28 +6774,28 @@
       <c r="A59" s="1">
         <v>44162</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F59" s="6" t="s">
+      <c r="B59" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H59" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I59" s="7" t="s">
+      <c r="H59" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J59" s="4" t="s">
@@ -6797,25 +6804,25 @@
       <c r="K59" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L59" s="6" t="s">
+      <c r="L59" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M59" t="s">
         <v>35</v>
       </c>
-      <c r="N59" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O59" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q59" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R59" s="7" t="s">
+      <c r="N59" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P59" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R59" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S59" s="3" t="s">
@@ -6824,7 +6831,7 @@
       <c r="T59" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U59" s="9" t="s">
+      <c r="U59" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V59" t="s">
@@ -6833,10 +6840,10 @@
       <c r="W59" t="s">
         <v>35</v>
       </c>
-      <c r="X59" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y59" s="9" t="s">
+      <c r="X59" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y59" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z59" t="s">
@@ -6874,28 +6881,28 @@
       <c r="A60" s="1">
         <v>44163</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F60" s="6" t="s">
+      <c r="B60" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H60" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I60" s="7" t="s">
+      <c r="H60" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I60" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J60" s="4" t="s">
@@ -6904,25 +6911,25 @@
       <c r="K60" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L60" s="6" t="s">
+      <c r="L60" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M60" t="s">
         <v>35</v>
       </c>
-      <c r="N60" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O60" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q60" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R60" s="7" t="s">
+      <c r="N60" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P60" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R60" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S60" s="3" t="s">
@@ -6931,7 +6938,7 @@
       <c r="T60" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U60" s="9" t="s">
+      <c r="U60" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V60" t="s">
@@ -6940,10 +6947,10 @@
       <c r="W60" t="s">
         <v>35</v>
       </c>
-      <c r="X60" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y60" s="9" t="s">
+      <c r="X60" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y60" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z60" t="s">
@@ -6981,28 +6988,28 @@
       <c r="A61" s="1">
         <v>44164</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="8">
         <v>62585806</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="9">
         <v>1457319</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="8">
         <v>13340663</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="8">
         <v>266591</v>
       </c>
       <c r="G61" s="4">
         <v>235942</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H61" s="5">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="9">
         <v>4058</v>
       </c>
       <c r="J61" s="4">
@@ -7011,25 +7018,25 @@
       <c r="K61" s="4">
         <v>24062</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L61" s="8">
         <v>21448</v>
       </c>
       <c r="M61">
         <v>680</v>
       </c>
-      <c r="N61" s="6">
+      <c r="N61" s="8">
         <v>196447</v>
       </c>
-      <c r="O61" s="6">
+      <c r="O61" s="8">
         <v>4470</v>
       </c>
-      <c r="P61" s="7">
+      <c r="P61" s="9">
         <v>31126</v>
       </c>
-      <c r="Q61" s="8">
+      <c r="Q61" s="5">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="R61" s="7">
+      <c r="R61" s="9">
         <v>2559</v>
       </c>
       <c r="S61" s="3">
@@ -7038,7 +7045,7 @@
       <c r="T61" s="2">
         <v>6260</v>
       </c>
-      <c r="U61" s="9">
+      <c r="U61" s="6">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="V61">
@@ -7047,10 +7054,10 @@
       <c r="W61">
         <v>157</v>
       </c>
-      <c r="X61" s="6">
+      <c r="X61" s="8">
         <v>21229</v>
       </c>
-      <c r="Y61" s="9">
+      <c r="Y61" s="6">
         <v>0.111</v>
       </c>
       <c r="Z61">
@@ -7088,28 +7095,28 @@
       <c r="A62" s="1">
         <v>44165</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="8">
         <v>63098003</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="9">
         <v>1465444</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="8">
         <v>13500315</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62" s="8">
         <v>267635</v>
       </c>
       <c r="G62" s="4">
         <v>237835</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="9">
         <v>4062</v>
       </c>
       <c r="J62" s="4">
@@ -7118,25 +7125,25 @@
       <c r="K62" s="4">
         <v>24199</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L62" s="8">
         <v>21552</v>
       </c>
       <c r="M62">
         <v>680</v>
       </c>
-      <c r="N62" s="6">
+      <c r="N62" s="8">
         <v>198370</v>
       </c>
-      <c r="O62" s="6">
+      <c r="O62" s="8">
         <v>4486</v>
       </c>
-      <c r="P62" s="7">
+      <c r="P62" s="9">
         <v>31388</v>
       </c>
-      <c r="Q62" s="8">
+      <c r="Q62" s="5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="R62" s="7">
+      <c r="R62" s="9">
         <v>2561</v>
       </c>
       <c r="S62" s="3">
@@ -7145,7 +7152,7 @@
       <c r="T62" s="2">
         <v>6299</v>
       </c>
-      <c r="U62" s="9">
+      <c r="U62" s="6">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="V62">
@@ -7154,10 +7161,10 @@
       <c r="W62">
         <v>157</v>
       </c>
-      <c r="X62" s="6">
+      <c r="X62" s="8">
         <v>21389</v>
       </c>
-      <c r="Y62" s="9">
+      <c r="Y62" s="6">
         <v>0.109</v>
       </c>
       <c r="Z62">
@@ -7195,28 +7202,28 @@
       <c r="A63" s="1">
         <v>44166</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="8">
         <v>63636008</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="9">
         <v>1476139</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="8">
         <v>13666470</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="8">
         <v>269948</v>
       </c>
       <c r="G63" s="4">
         <v>240063</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H63" s="5">
         <v>0.08</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="9">
         <v>4093</v>
       </c>
       <c r="J63" s="4">
@@ -7225,25 +7232,25 @@
       <c r="K63" s="4">
         <v>24393</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L63" s="8">
         <v>21685</v>
       </c>
       <c r="M63">
         <v>685</v>
       </c>
-      <c r="N63" s="6">
+      <c r="N63" s="8">
         <v>201135</v>
       </c>
-      <c r="O63" s="6">
+      <c r="O63" s="8">
         <v>4516</v>
       </c>
-      <c r="P63" s="7">
+      <c r="P63" s="9">
         <v>31605</v>
       </c>
-      <c r="Q63" s="8">
+      <c r="Q63" s="5">
         <v>7.8E-2</v>
       </c>
-      <c r="R63" s="7">
+      <c r="R63" s="9">
         <v>2591</v>
       </c>
       <c r="S63" s="3">
@@ -7252,7 +7259,7 @@
       <c r="T63" s="2">
         <v>6334</v>
       </c>
-      <c r="U63" s="9">
+      <c r="U63" s="6">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="V63">
@@ -7261,10 +7268,10 @@
       <c r="W63">
         <v>157</v>
       </c>
-      <c r="X63" s="6">
+      <c r="X63" s="8">
         <v>21540</v>
       </c>
-      <c r="Y63" s="9">
+      <c r="Y63" s="6">
         <v>0.109</v>
       </c>
       <c r="Z63">
@@ -7302,28 +7309,28 @@
       <c r="A64" s="1">
         <v>44167</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="8">
         <v>64304732</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="9">
         <v>1488513</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="8">
         <v>13869361</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="8">
         <v>272552</v>
       </c>
       <c r="G64" s="4">
         <v>242480</v>
       </c>
-      <c r="H64" s="8">
+      <c r="H64" s="5">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="9">
         <v>4113</v>
       </c>
       <c r="J64" s="4">
@@ -7332,25 +7339,25 @@
       <c r="K64" s="4">
         <v>24620</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L64" s="8">
         <v>21842</v>
       </c>
       <c r="M64">
         <v>690</v>
       </c>
-      <c r="N64" s="6">
+      <c r="N64" s="8">
         <v>203355</v>
       </c>
-      <c r="O64" s="6">
+      <c r="O64" s="8">
         <v>4558</v>
       </c>
-      <c r="P64" s="7">
+      <c r="P64" s="9">
         <v>31982</v>
       </c>
-      <c r="Q64" s="8">
+      <c r="Q64" s="5">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="R64" s="7">
+      <c r="R64" s="9">
         <v>2613</v>
       </c>
       <c r="S64" s="3">
@@ -7359,7 +7366,7 @@
       <c r="T64" s="2">
         <v>6417</v>
       </c>
-      <c r="U64" s="9">
+      <c r="U64" s="6">
         <v>5.5E-2</v>
       </c>
       <c r="V64">
@@ -7368,10 +7375,10 @@
       <c r="W64">
         <v>157</v>
       </c>
-      <c r="X64" s="6">
+      <c r="X64" s="8">
         <v>21727</v>
       </c>
-      <c r="Y64" s="9">
+      <c r="Y64" s="6">
         <v>0.114</v>
       </c>
       <c r="Z64">
@@ -7409,28 +7416,28 @@
       <c r="A65" s="1">
         <v>44168</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="8">
         <v>65132317</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="9">
         <v>1504401</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="8">
         <v>14124678</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="8">
         <v>276148</v>
       </c>
       <c r="G65" s="4">
         <v>244503</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H65" s="5">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65" s="9">
         <v>4147</v>
       </c>
       <c r="J65" s="4">
@@ -7439,25 +7446,25 @@
       <c r="K65" s="4">
         <v>24782</v>
       </c>
-      <c r="L65" s="6">
+      <c r="L65" s="8">
         <v>22164</v>
       </c>
       <c r="M65">
         <v>692</v>
       </c>
-      <c r="N65" s="6">
+      <c r="N65" s="8">
         <v>205399</v>
       </c>
-      <c r="O65" s="6">
+      <c r="O65" s="8">
         <v>4606</v>
       </c>
-      <c r="P65" s="7">
+      <c r="P65" s="9">
         <v>32240</v>
       </c>
-      <c r="Q65" s="8">
+      <c r="Q65" s="5">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="R65" s="7">
+      <c r="R65" s="9">
         <v>2627</v>
       </c>
       <c r="S65" s="3">
@@ -7466,7 +7473,7 @@
       <c r="T65" s="2">
         <v>6472</v>
       </c>
-      <c r="U65" s="9">
+      <c r="U65" s="6">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="V65">
@@ -7475,10 +7482,10 @@
       <c r="W65">
         <v>157</v>
       </c>
-      <c r="X65" s="6">
+      <c r="X65" s="8">
         <v>21936</v>
       </c>
-      <c r="Y65" s="9">
+      <c r="Y65" s="6">
         <v>0.11700000000000001</v>
       </c>
       <c r="Z65">
@@ -7516,28 +7523,28 @@
       <c r="A66" s="1">
         <v>44169</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F66" s="6" t="s">
+      <c r="B66" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H66" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I66" s="7" t="s">
+      <c r="H66" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I66" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J66" s="4" t="s">
@@ -7546,25 +7553,25 @@
       <c r="K66" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L66" s="6" t="s">
+      <c r="L66" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M66" t="s">
         <v>35</v>
       </c>
-      <c r="N66" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O66" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P66" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q66" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R66" s="7" t="s">
+      <c r="N66" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O66" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P66" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R66" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S66" s="3" t="s">
@@ -7573,7 +7580,7 @@
       <c r="T66" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U66" s="9" t="s">
+      <c r="U66" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V66" t="s">
@@ -7582,10 +7589,10 @@
       <c r="W66" t="s">
         <v>35</v>
       </c>
-      <c r="X66" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y66" s="9" t="s">
+      <c r="X66" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y66" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z66" t="s">
@@ -7623,28 +7630,28 @@
       <c r="A67" s="1">
         <v>44170</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F67" s="6" t="s">
+      <c r="B67" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H67" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I67" s="7" t="s">
+      <c r="H67" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I67" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J67" s="4" t="s">
@@ -7653,25 +7660,25 @@
       <c r="K67" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L67" s="6" t="s">
+      <c r="L67" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M67" t="s">
         <v>35</v>
       </c>
-      <c r="N67" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O67" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P67" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q67" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R67" s="7" t="s">
+      <c r="N67" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O67" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P67" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R67" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S67" s="3" t="s">
@@ -7680,7 +7687,7 @@
       <c r="T67" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U67" s="9" t="s">
+      <c r="U67" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V67" t="s">
@@ -7689,10 +7696,10 @@
       <c r="W67" t="s">
         <v>35</v>
       </c>
-      <c r="X67" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y67" s="9" t="s">
+      <c r="X67" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y67" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z67" t="s">
@@ -7730,28 +7737,28 @@
       <c r="A68" s="1">
         <v>44171</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="8">
         <v>66913062</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="9">
         <v>1533909</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="8">
         <v>14705821</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="8">
         <v>281938</v>
       </c>
       <c r="G68" s="4">
         <v>255053</v>
       </c>
-      <c r="H68" s="8">
+      <c r="H68" s="5">
         <v>0.106</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="9">
         <v>4200</v>
       </c>
       <c r="J68" s="4">
@@ -7760,25 +7767,25 @@
       <c r="K68" s="4">
         <v>25235</v>
       </c>
-      <c r="L68" s="6">
+      <c r="L68" s="8">
         <v>23136</v>
       </c>
       <c r="M68">
         <v>697</v>
       </c>
-      <c r="N68" s="6">
+      <c r="N68" s="8">
         <v>215027</v>
       </c>
-      <c r="O68" s="6">
+      <c r="O68" s="8">
         <v>4685</v>
       </c>
-      <c r="P68" s="7">
+      <c r="P68" s="9">
         <v>33488</v>
       </c>
-      <c r="Q68" s="8">
+      <c r="Q68" s="5">
         <v>0.11</v>
       </c>
-      <c r="R68" s="7">
+      <c r="R68" s="9">
         <v>2646</v>
       </c>
       <c r="S68" s="3">
@@ -7787,7 +7794,7 @@
       <c r="T68" s="2">
         <v>6792</v>
       </c>
-      <c r="U68" s="9">
+      <c r="U68" s="6">
         <v>7.8E-2</v>
       </c>
       <c r="V68">
@@ -7796,10 +7803,10 @@
       <c r="W68">
         <v>158</v>
       </c>
-      <c r="X68" s="6">
+      <c r="X68" s="8">
         <v>22551</v>
       </c>
-      <c r="Y68" s="9">
+      <c r="Y68" s="6">
         <v>0.152</v>
       </c>
       <c r="Z68">
@@ -7837,28 +7844,28 @@
       <c r="A69" s="1">
         <v>44172</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="8">
         <v>67471706</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="9">
         <v>1542094</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="8">
         <v>14909148</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="8">
         <v>283503</v>
       </c>
       <c r="G69" s="4">
         <v>258870</v>
       </c>
-      <c r="H69" s="8">
+      <c r="H69" s="5">
         <v>0.108</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="9">
         <v>4208</v>
       </c>
       <c r="J69" s="4">
@@ -7867,25 +7874,25 @@
       <c r="K69" s="4">
         <v>25401</v>
       </c>
-      <c r="L69" s="6">
+      <c r="L69" s="8">
         <v>23319</v>
       </c>
       <c r="M69">
         <v>701</v>
       </c>
-      <c r="N69" s="6">
+      <c r="N69" s="8">
         <v>217329</v>
       </c>
-      <c r="O69" s="6">
+      <c r="O69" s="8">
         <v>4705</v>
       </c>
-      <c r="P69" s="7">
+      <c r="P69" s="9">
         <v>34108</v>
       </c>
-      <c r="Q69" s="8">
+      <c r="Q69" s="5">
         <v>0.115</v>
       </c>
-      <c r="R69" s="7">
+      <c r="R69" s="9">
         <v>2666</v>
       </c>
       <c r="S69" s="3">
@@ -7894,7 +7901,7 @@
       <c r="T69" s="2">
         <v>6904</v>
       </c>
-      <c r="U69" s="9">
+      <c r="U69" s="6">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="V69">
@@ -7903,10 +7910,10 @@
       <c r="W69">
         <v>158</v>
       </c>
-      <c r="X69" s="6">
+      <c r="X69" s="8">
         <v>22647</v>
       </c>
-      <c r="Y69" s="9">
+      <c r="Y69" s="6">
         <v>0.156</v>
       </c>
       <c r="Z69">
@@ -7944,28 +7951,28 @@
       <c r="A70" s="1">
         <v>44173</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="8">
         <v>68014594</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="9">
         <v>1553169</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="8">
         <v>15087418</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70" s="8">
         <v>285643</v>
       </c>
       <c r="G70" s="4">
         <v>262730</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H70" s="5">
         <v>0.109</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="9">
         <v>4260</v>
       </c>
       <c r="J70" s="4">
@@ -7974,25 +7981,25 @@
       <c r="K70" s="4">
         <v>25201</v>
       </c>
-      <c r="L70" s="6">
+      <c r="L70" s="8">
         <v>23589</v>
       </c>
       <c r="M70">
         <v>701</v>
       </c>
-      <c r="N70" s="6">
+      <c r="N70" s="8">
         <v>219961</v>
       </c>
-      <c r="O70" s="6">
+      <c r="O70" s="8">
         <v>4755</v>
       </c>
-      <c r="P70" s="7">
+      <c r="P70" s="9">
         <v>34836</v>
       </c>
-      <c r="Q70" s="8">
+      <c r="Q70" s="5">
         <v>0.11600000000000001</v>
       </c>
-      <c r="R70" s="7">
+      <c r="R70" s="9">
         <v>2679</v>
       </c>
       <c r="S70" s="3">
@@ -8001,7 +8008,7 @@
       <c r="T70" s="2">
         <v>6944</v>
       </c>
-      <c r="U70" s="9">
+      <c r="U70" s="6">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="V70">
@@ -8010,10 +8017,10 @@
       <c r="W70">
         <v>161</v>
       </c>
-      <c r="X70" s="6">
+      <c r="X70" s="8">
         <v>22952</v>
       </c>
-      <c r="Y70" s="9">
+      <c r="Y70" s="6">
         <v>0.158</v>
       </c>
       <c r="Z70">
@@ -8051,28 +8058,28 @@
       <c r="A71" s="1">
         <v>44174</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="8">
         <v>68692977</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="9">
         <v>1565101</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="8">
         <v>15329168</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71" s="8">
         <v>288185</v>
       </c>
       <c r="G71" s="4">
         <v>267128</v>
       </c>
-      <c r="H71" s="8">
+      <c r="H71" s="5">
         <v>0.109</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="9">
         <v>4281</v>
       </c>
       <c r="J71" s="4">
@@ -8081,25 +8088,25 @@
       <c r="K71" s="4">
         <v>25862</v>
       </c>
-      <c r="L71" s="6">
+      <c r="L71" s="8">
         <v>23854</v>
       </c>
       <c r="M71">
         <v>704</v>
       </c>
-      <c r="N71" s="6">
+      <c r="N71" s="8">
         <v>222653</v>
       </c>
-      <c r="O71" s="6">
+      <c r="O71" s="8">
         <v>4801</v>
       </c>
-      <c r="P71" s="7">
+      <c r="P71" s="9">
         <v>35356</v>
       </c>
-      <c r="Q71" s="8">
+      <c r="Q71" s="5">
         <v>0.109</v>
       </c>
-      <c r="R71" s="7">
+      <c r="R71" s="9">
         <v>2690</v>
       </c>
       <c r="S71" s="3">
@@ -8108,7 +8115,7 @@
       <c r="T71" s="2">
         <v>7062</v>
       </c>
-      <c r="U71" s="9">
+      <c r="U71" s="6">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="V71">
@@ -8117,10 +8124,10 @@
       <c r="W71">
         <v>162</v>
       </c>
-      <c r="X71" s="6">
+      <c r="X71" s="8">
         <v>23296</v>
       </c>
-      <c r="Y71" s="9">
+      <c r="Y71" s="6">
         <v>0.159</v>
       </c>
       <c r="Z71">
@@ -8158,28 +8165,28 @@
       <c r="A72" s="1">
         <v>44175</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="8">
         <v>69363786</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="9">
         <v>1578008</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="8">
         <v>15535565</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72" s="8">
         <v>291403</v>
       </c>
       <c r="G72" s="4">
         <v>271043</v>
       </c>
-      <c r="H72" s="8">
+      <c r="H72" s="5">
         <v>0.11</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72" s="9">
         <v>4335</v>
       </c>
       <c r="J72" s="4">
@@ -8188,25 +8195,25 @@
       <c r="K72" s="4">
         <v>26016</v>
       </c>
-      <c r="L72" s="6">
+      <c r="L72" s="8">
         <v>24098</v>
       </c>
       <c r="M72">
         <v>708</v>
       </c>
-      <c r="N72" s="6">
+      <c r="N72" s="8">
         <v>225855</v>
       </c>
-      <c r="O72" s="6">
+      <c r="O72" s="8">
         <v>4850</v>
       </c>
-      <c r="P72" s="7">
+      <c r="P72" s="9">
         <v>35796</v>
       </c>
-      <c r="Q72" s="8">
+      <c r="Q72" s="5">
         <v>0.11</v>
       </c>
-      <c r="R72" s="7">
+      <c r="R72" s="9">
         <v>2695</v>
       </c>
       <c r="S72" s="3">
@@ -8215,7 +8222,7 @@
       <c r="T72" s="2">
         <v>7097</v>
       </c>
-      <c r="U72" s="9">
+      <c r="U72" s="6">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="V72">
@@ -8224,10 +8231,10 @@
       <c r="W72">
         <v>164</v>
       </c>
-      <c r="X72" s="6">
+      <c r="X72" s="8">
         <v>23543</v>
       </c>
-      <c r="Y72" s="9">
+      <c r="Y72" s="6">
         <v>0.16400000000000001</v>
       </c>
       <c r="Z72">
@@ -8265,28 +8272,28 @@
       <c r="A73" s="1">
         <v>44176</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F73" s="6" t="s">
+      <c r="B73" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H73" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I73" s="7" t="s">
+      <c r="H73" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J73" s="4" t="s">
@@ -8295,25 +8302,25 @@
       <c r="K73" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L73" s="6" t="s">
+      <c r="L73" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M73" t="s">
         <v>35</v>
       </c>
-      <c r="N73" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O73" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P73" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q73" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R73" s="7" t="s">
+      <c r="N73" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O73" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P73" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q73" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R73" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S73" s="3" t="s">
@@ -8322,7 +8329,7 @@
       <c r="T73" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U73" s="9" t="s">
+      <c r="U73" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V73" t="s">
@@ -8331,10 +8338,10 @@
       <c r="W73" t="s">
         <v>35</v>
       </c>
-      <c r="X73" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y73" s="9" t="s">
+      <c r="X73" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y73" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z73" t="s">
@@ -8372,28 +8379,28 @@
       <c r="A74" s="1">
         <v>44177</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F74" s="6" t="s">
+      <c r="B74" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H74" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I74" s="7" t="s">
+      <c r="H74" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I74" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J74" s="4" t="s">
@@ -8402,25 +8409,25 @@
       <c r="K74" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L74" s="6" t="s">
+      <c r="L74" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M74" t="s">
         <v>35</v>
       </c>
-      <c r="N74" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O74" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P74" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q74" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R74" s="7" t="s">
+      <c r="N74" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O74" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P74" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q74" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R74" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S74" s="3" t="s">
@@ -8429,7 +8436,7 @@
       <c r="T74" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U74" s="9" t="s">
+      <c r="U74" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V74" t="s">
@@ -8438,10 +8445,10 @@
       <c r="W74" t="s">
         <v>35</v>
       </c>
-      <c r="X74" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y74" s="9" t="s">
+      <c r="X74" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y74" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z74" t="s">
@@ -8479,28 +8486,28 @@
       <c r="A75" s="1">
         <v>44178</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="8">
         <v>72201716</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="9">
         <v>1611758</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="8">
         <v>16246771</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75" s="8">
         <v>299163</v>
       </c>
       <c r="G75" s="4">
         <v>281909</v>
       </c>
-      <c r="H75" s="8">
+      <c r="H75" s="5">
         <v>0.108</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I75" s="9">
         <v>4411</v>
       </c>
       <c r="J75" s="4">
@@ -8509,25 +8516,25 @@
       <c r="K75" s="4">
         <v>26503</v>
       </c>
-      <c r="L75" s="6">
+      <c r="L75" s="8">
         <v>24874</v>
       </c>
       <c r="M75">
         <v>715</v>
       </c>
-      <c r="N75" s="6">
+      <c r="N75" s="8">
         <v>234647</v>
       </c>
-      <c r="O75" s="6">
+      <c r="O75" s="8">
         <v>4954</v>
       </c>
-      <c r="P75" s="7">
+      <c r="P75" s="9">
         <v>36933</v>
       </c>
-      <c r="Q75" s="8">
+      <c r="Q75" s="5">
         <v>0.108</v>
       </c>
-      <c r="R75" s="7">
+      <c r="R75" s="9">
         <v>2727</v>
       </c>
       <c r="S75" s="3">
@@ -8536,7 +8543,7 @@
       <c r="T75" s="2">
         <v>7395</v>
       </c>
-      <c r="U75" s="9">
+      <c r="U75" s="6">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="V75">
@@ -8545,10 +8552,10 @@
       <c r="W75">
         <v>164</v>
       </c>
-      <c r="X75" s="6">
+      <c r="X75" s="8">
         <v>24562</v>
       </c>
-      <c r="Y75" s="9">
+      <c r="Y75" s="6">
         <v>0.152</v>
       </c>
       <c r="Z75">
@@ -8586,28 +8593,28 @@
       <c r="A76" s="1">
         <v>44179</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="8">
         <v>72626153</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="9">
         <v>1618509</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="8">
         <v>16407785</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F76" s="8">
         <v>300267</v>
       </c>
       <c r="G76" s="4">
         <v>285149</v>
       </c>
-      <c r="H76" s="8">
+      <c r="H76" s="5">
         <v>0.109</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I76" s="9">
         <v>4414</v>
       </c>
       <c r="J76" s="4">
@@ -8616,25 +8623,25 @@
       <c r="K76" s="4">
         <v>26618</v>
       </c>
-      <c r="L76" s="6">
+      <c r="L76" s="8">
         <v>25038</v>
       </c>
       <c r="M76">
         <v>716</v>
       </c>
-      <c r="N76" s="6">
+      <c r="N76" s="8">
         <v>236961</v>
       </c>
-      <c r="O76" s="6">
+      <c r="O76" s="8">
         <v>4978</v>
       </c>
-      <c r="P76" s="7">
+      <c r="P76" s="9">
         <v>37440</v>
       </c>
-      <c r="Q76" s="8">
+      <c r="Q76" s="5">
         <v>0.106</v>
       </c>
-      <c r="R76" s="7">
+      <c r="R76" s="9">
         <v>2728</v>
       </c>
       <c r="S76" s="3">
@@ -8643,7 +8650,7 @@
       <c r="T76" s="2">
         <v>7463</v>
       </c>
-      <c r="U76" s="9">
+      <c r="U76" s="6">
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="V76">
@@ -8652,10 +8659,10 @@
       <c r="W76">
         <v>164</v>
       </c>
-      <c r="X76" s="6">
+      <c r="X76" s="8">
         <v>24674</v>
       </c>
-      <c r="Y76" s="9">
+      <c r="Y76" s="6">
         <v>0.154</v>
       </c>
       <c r="Z76">
@@ -8693,28 +8700,28 @@
       <c r="A77" s="1">
         <v>44180</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="8">
         <v>73253728</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="9">
         <v>1630211</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="8">
         <v>16636487</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="8">
         <v>302294</v>
       </c>
       <c r="G77" s="4">
         <v>288309</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H77" s="5">
         <v>0.112</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I77" s="9">
         <v>4470</v>
       </c>
       <c r="J77" s="4">
@@ -8723,25 +8730,25 @@
       <c r="K77" s="4">
         <v>26929</v>
       </c>
-      <c r="L77" s="6">
+      <c r="L77" s="8">
         <v>25339</v>
       </c>
       <c r="M77">
         <v>720</v>
       </c>
-      <c r="N77" s="6">
+      <c r="N77" s="8">
         <v>239362</v>
       </c>
-      <c r="O77" s="6">
+      <c r="O77" s="8">
         <v>5039</v>
       </c>
-      <c r="P77" s="7">
+      <c r="P77" s="9">
         <v>37779</v>
       </c>
-      <c r="Q77" s="8">
+      <c r="Q77" s="5">
         <v>0.107</v>
       </c>
-      <c r="R77" s="7">
+      <c r="R77" s="9">
         <v>2735</v>
       </c>
       <c r="S77" s="3">
@@ -8750,7 +8757,7 @@
       <c r="T77" s="2">
         <v>7525</v>
       </c>
-      <c r="U77" s="9">
+      <c r="U77" s="6">
         <v>0.08</v>
       </c>
       <c r="V77">
@@ -8759,10 +8766,10 @@
       <c r="W77">
         <v>164</v>
       </c>
-      <c r="X77" s="6">
+      <c r="X77" s="8">
         <v>24895</v>
       </c>
-      <c r="Y77" s="9">
+      <c r="Y77" s="6">
         <v>0.156</v>
       </c>
       <c r="Z77">
@@ -8800,28 +8807,28 @@
       <c r="A78" s="1">
         <v>44181</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="8">
         <v>73969003</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="9">
         <v>1644589</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="8">
         <v>16885623</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="8">
         <v>306363</v>
       </c>
       <c r="G78" s="4">
         <v>292240</v>
       </c>
-      <c r="H78" s="8">
+      <c r="H78" s="5">
         <v>0.114</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I78" s="9">
         <v>4508</v>
       </c>
       <c r="J78" s="4">
@@ -8830,25 +8837,25 @@
       <c r="K78" s="4">
         <v>27060</v>
       </c>
-      <c r="L78" s="6">
+      <c r="L78" s="8">
         <v>25602</v>
       </c>
       <c r="M78">
         <v>720</v>
       </c>
-      <c r="N78" s="6">
+      <c r="N78" s="8">
         <v>241767</v>
       </c>
-      <c r="O78" s="6">
+      <c r="O78" s="8">
         <v>5103</v>
       </c>
-      <c r="P78" s="7">
+      <c r="P78" s="9">
         <v>38089</v>
       </c>
-      <c r="Q78" s="8">
+      <c r="Q78" s="5">
         <v>0.108</v>
       </c>
-      <c r="R78" s="7">
+      <c r="R78" s="9">
         <v>2755</v>
       </c>
       <c r="S78" s="3">
@@ -8857,7 +8864,7 @@
       <c r="T78" s="2">
         <v>7594</v>
       </c>
-      <c r="U78" s="9">
+      <c r="U78" s="6">
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="V78">
@@ -8866,10 +8873,10 @@
       <c r="W78">
         <v>166</v>
       </c>
-      <c r="X78" s="6">
+      <c r="X78" s="8">
         <v>25126</v>
       </c>
-      <c r="Y78" s="9">
+      <c r="Y78" s="6">
         <v>0.159</v>
       </c>
       <c r="Z78">
@@ -8907,28 +8914,28 @@
       <c r="A79" s="1">
         <v>44182</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="8">
         <v>74724989</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="9">
         <v>1657706</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="8">
         <v>17147174</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="8">
         <v>309859</v>
       </c>
       <c r="G79" s="4">
         <v>296093</v>
       </c>
-      <c r="H79" s="8">
+      <c r="H79" s="5">
         <v>0.11600000000000001</v>
       </c>
-      <c r="I79" s="7">
+      <c r="I79" s="9">
         <v>4553</v>
       </c>
       <c r="J79" s="4">
@@ -8937,25 +8944,25 @@
       <c r="K79" s="4">
         <v>27307</v>
       </c>
-      <c r="L79" s="6">
+      <c r="L79" s="8">
         <v>25830</v>
       </c>
       <c r="M79">
         <v>725</v>
       </c>
-      <c r="N79" s="6">
+      <c r="N79" s="8">
         <v>243984</v>
       </c>
-      <c r="O79" s="6">
+      <c r="O79" s="8">
         <v>5152</v>
       </c>
-      <c r="P79" s="7">
+      <c r="P79" s="9">
         <v>38490</v>
       </c>
-      <c r="Q79" s="8">
+      <c r="Q79" s="5">
         <v>0.109</v>
       </c>
-      <c r="R79" s="7">
+      <c r="R79" s="9">
         <v>2774</v>
       </c>
       <c r="S79" s="3">
@@ -8964,7 +8971,7 @@
       <c r="T79" s="2">
         <v>7661</v>
       </c>
-      <c r="U79" s="9">
+      <c r="U79" s="6">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="V79">
@@ -8973,10 +8980,10 @@
       <c r="W79">
         <v>167</v>
       </c>
-      <c r="X79" s="6">
+      <c r="X79" s="8">
         <v>25434</v>
       </c>
-      <c r="Y79" s="9">
+      <c r="Y79" s="6">
         <v>0.16400000000000001</v>
       </c>
       <c r="Z79">
@@ -9014,28 +9021,28 @@
       <c r="A80" s="1">
         <v>44183</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F80" s="6" t="s">
+      <c r="B80" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F80" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H80" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I80" s="7" t="s">
+      <c r="H80" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I80" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J80" s="4" t="s">
@@ -9044,25 +9051,25 @@
       <c r="K80" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L80" s="6" t="s">
+      <c r="L80" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M80" t="s">
         <v>35</v>
       </c>
-      <c r="N80" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O80" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P80" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q80" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R80" s="7" t="s">
+      <c r="N80" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O80" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P80" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q80" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R80" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S80" s="3" t="s">
@@ -9071,7 +9078,7 @@
       <c r="T80" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U80" s="9" t="s">
+      <c r="U80" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V80" t="s">
@@ -9080,10 +9087,10 @@
       <c r="W80" t="s">
         <v>35</v>
       </c>
-      <c r="X80" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y80" s="9" t="s">
+      <c r="X80" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y80" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z80" t="s">
@@ -9121,28 +9128,28 @@
       <c r="A81" s="1">
         <v>44184</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F81" s="6" t="s">
+      <c r="B81" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H81" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I81" s="7" t="s">
+      <c r="H81" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I81" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J81" s="4" t="s">
@@ -9151,25 +9158,25 @@
       <c r="K81" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L81" s="6" t="s">
+      <c r="L81" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M81" t="s">
         <v>35</v>
       </c>
-      <c r="N81" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O81" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P81" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q81" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R81" s="7" t="s">
+      <c r="N81" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O81" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P81" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q81" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R81" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S81" s="3" t="s">
@@ -9178,7 +9185,7 @@
       <c r="T81" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U81" s="9" t="s">
+      <c r="U81" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V81" t="s">
@@ -9187,10 +9194,10 @@
       <c r="W81" t="s">
         <v>35</v>
       </c>
-      <c r="X81" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y81" s="9" t="s">
+      <c r="X81" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y81" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z81" t="s">
@@ -9228,28 +9235,28 @@
       <c r="A82" s="1">
         <v>44185</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="8">
         <v>76669601</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="9">
         <v>1691092</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="8">
         <v>17807491</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F82" s="8">
         <v>317387</v>
       </c>
       <c r="G82" s="4">
         <v>306848</v>
       </c>
-      <c r="H82" s="8">
+      <c r="H82" s="5">
         <v>0.115</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I82" s="9">
         <v>4650</v>
       </c>
       <c r="J82" s="4">
@@ -9258,25 +9265,25 @@
       <c r="K82" s="4">
         <v>27780</v>
       </c>
-      <c r="L82" s="6">
+      <c r="L82" s="8">
         <v>26601</v>
       </c>
       <c r="M82">
         <v>737</v>
       </c>
-      <c r="N82" s="6">
+      <c r="N82" s="8">
         <v>250808</v>
       </c>
-      <c r="O82" s="6">
+      <c r="O82" s="8">
         <v>5279</v>
       </c>
-      <c r="P82" s="7">
+      <c r="P82" s="9">
         <v>39637</v>
       </c>
-      <c r="Q82" s="8">
+      <c r="Q82" s="5">
         <v>0.109</v>
       </c>
-      <c r="R82" s="7">
+      <c r="R82" s="9">
         <v>2811</v>
       </c>
       <c r="S82" s="3">
@@ -9285,7 +9292,7 @@
       <c r="T82" s="2">
         <v>7975</v>
       </c>
-      <c r="U82" s="9">
+      <c r="U82" s="6">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="V82">
@@ -9294,10 +9301,10 @@
       <c r="W82">
         <v>168</v>
       </c>
-      <c r="X82" s="6">
+      <c r="X82" s="8">
         <v>26117</v>
       </c>
-      <c r="Y82" s="9">
+      <c r="Y82" s="6">
         <v>0.16600000000000001</v>
       </c>
       <c r="Z82">
@@ -9335,28 +9342,28 @@
       <c r="A83" s="1">
         <v>44186</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F83" s="6" t="s">
+      <c r="B83" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H83" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I83" s="7" t="s">
+      <c r="H83" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I83" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J83" s="4" t="s">
@@ -9365,25 +9372,25 @@
       <c r="K83" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L83" s="6" t="s">
+      <c r="L83" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M83" t="s">
         <v>35</v>
       </c>
-      <c r="N83" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O83" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P83" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q83" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R83" s="7" t="s">
+      <c r="N83" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O83" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P83" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q83" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R83" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S83" s="3" t="s">
@@ -9392,7 +9399,7 @@
       <c r="T83" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U83" s="9" t="s">
+      <c r="U83" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V83" t="s">
@@ -9401,10 +9408,10 @@
       <c r="W83" t="s">
         <v>35</v>
       </c>
-      <c r="X83" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y83" s="9" t="s">
+      <c r="X83" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y83" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z83" t="s">
@@ -9442,28 +9449,28 @@
       <c r="A84" s="1">
         <v>44187</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F84" s="6" t="s">
+      <c r="B84" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H84" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I84" s="7" t="s">
+      <c r="H84" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I84" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J84" s="4" t="s">
@@ -9472,25 +9479,25 @@
       <c r="K84" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L84" s="6" t="s">
+      <c r="L84" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M84" t="s">
         <v>35</v>
       </c>
-      <c r="N84" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O84" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P84" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q84" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R84" s="7" t="s">
+      <c r="N84" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O84" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P84" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q84" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R84" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S84" s="3" t="s">
@@ -9499,7 +9506,7 @@
       <c r="T84" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U84" s="9" t="s">
+      <c r="U84" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V84" t="s">
@@ -9508,10 +9515,10 @@
       <c r="W84" t="s">
         <v>35</v>
       </c>
-      <c r="X84" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y84" s="9" t="s">
+      <c r="X84" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y84" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z84" t="s">
@@ -9549,28 +9556,28 @@
       <c r="A85" s="1">
         <v>44188</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F85" s="6" t="s">
+      <c r="B85" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H85" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I85" s="7" t="s">
+      <c r="H85" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I85" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J85" s="4" t="s">
@@ -9579,25 +9586,25 @@
       <c r="K85" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L85" s="6" t="s">
+      <c r="L85" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M85" t="s">
         <v>35</v>
       </c>
-      <c r="N85" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O85" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P85" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q85" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R85" s="7" t="s">
+      <c r="N85" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O85" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P85" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q85" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R85" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S85" s="3" t="s">
@@ -9606,7 +9613,7 @@
       <c r="T85" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U85" s="9" t="s">
+      <c r="U85" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V85" t="s">
@@ -9615,10 +9622,10 @@
       <c r="W85" t="s">
         <v>35</v>
       </c>
-      <c r="X85" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y85" s="9" t="s">
+      <c r="X85" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y85" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z85" t="s">
@@ -9656,28 +9663,28 @@
       <c r="A86" s="1">
         <v>44189</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F86" s="6" t="s">
+      <c r="B86" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H86" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I86" s="7" t="s">
+      <c r="H86" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I86" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J86" s="4" t="s">
@@ -9686,25 +9693,25 @@
       <c r="K86" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L86" s="6" t="s">
+      <c r="L86" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M86" t="s">
         <v>35</v>
       </c>
-      <c r="N86" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O86" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P86" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q86" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R86" s="7" t="s">
+      <c r="N86" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O86" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P86" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q86" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R86" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S86" s="3" t="s">
@@ -9713,7 +9720,7 @@
       <c r="T86" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U86" s="9" t="s">
+      <c r="U86" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V86" t="s">
@@ -9722,10 +9729,10 @@
       <c r="W86" t="s">
         <v>35</v>
       </c>
-      <c r="X86" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y86" s="9" t="s">
+      <c r="X86" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y86" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z86" t="s">
@@ -9763,28 +9770,28 @@
       <c r="A87" s="1">
         <v>44190</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F87" s="6" t="s">
+      <c r="B87" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F87" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H87" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I87" s="7" t="s">
+      <c r="H87" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I87" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J87" s="4" t="s">
@@ -9793,25 +9800,25 @@
       <c r="K87" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L87" s="6" t="s">
+      <c r="L87" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M87" t="s">
         <v>35</v>
       </c>
-      <c r="N87" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O87" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P87" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q87" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R87" s="7" t="s">
+      <c r="N87" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O87" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P87" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q87" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R87" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S87" s="3" t="s">
@@ -9820,7 +9827,7 @@
       <c r="T87" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U87" s="9" t="s">
+      <c r="U87" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V87" t="s">
@@ -9829,10 +9836,10 @@
       <c r="W87" t="s">
         <v>35</v>
       </c>
-      <c r="X87" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y87" s="9" t="s">
+      <c r="X87" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y87" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z87" t="s">
@@ -9870,28 +9877,28 @@
       <c r="A88" s="1">
         <v>44191</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F88" s="6" t="s">
+      <c r="B88" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F88" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H88" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I88" s="7" t="s">
+      <c r="H88" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I88" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J88" s="4" t="s">
@@ -9900,25 +9907,25 @@
       <c r="K88" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L88" s="6" t="s">
+      <c r="L88" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M88" t="s">
         <v>35</v>
       </c>
-      <c r="N88" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O88" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P88" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q88" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R88" s="7" t="s">
+      <c r="N88" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O88" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P88" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q88" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R88" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S88" s="3" t="s">
@@ -9927,7 +9934,7 @@
       <c r="T88" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U88" s="9" t="s">
+      <c r="U88" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V88" t="s">
@@ -9936,10 +9943,10 @@
       <c r="W88" t="s">
         <v>35</v>
       </c>
-      <c r="X88" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y88" s="9" t="s">
+      <c r="X88" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y88" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z88" t="s">
@@ -9977,28 +9984,28 @@
       <c r="A89" s="1">
         <v>44192</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="8">
         <v>80751164</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89" s="9">
         <v>1764215</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="8">
         <v>19129368</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F89" s="8">
         <v>333110</v>
       </c>
       <c r="G89" s="4">
         <v>333576</v>
       </c>
-      <c r="H89" s="8">
+      <c r="H89" s="5">
         <v>0.122</v>
       </c>
-      <c r="I89" s="7">
+      <c r="I89" s="9">
         <v>4854</v>
       </c>
       <c r="J89" s="4">
@@ -10007,25 +10014,25 @@
       <c r="K89" s="4">
         <v>29661</v>
       </c>
-      <c r="L89" s="6">
+      <c r="L89" s="8">
         <v>28202</v>
       </c>
       <c r="M89">
         <v>768</v>
       </c>
-      <c r="N89" s="6">
+      <c r="N89" s="8">
         <v>267198</v>
       </c>
-      <c r="O89" s="6">
+      <c r="O89" s="8">
         <v>5545</v>
       </c>
-      <c r="P89" s="7">
+      <c r="P89" s="9">
         <v>42921</v>
       </c>
-      <c r="Q89" s="8">
+      <c r="Q89" s="5">
         <v>0.105</v>
       </c>
-      <c r="R89" s="7">
+      <c r="R89" s="9">
         <v>2917</v>
       </c>
       <c r="S89" s="3">
@@ -10034,7 +10041,7 @@
       <c r="T89" s="2">
         <v>8568</v>
       </c>
-      <c r="U89" s="9">
+      <c r="U89" s="6">
         <v>6.2E-2</v>
       </c>
       <c r="V89">
@@ -10043,10 +10050,10 @@
       <c r="W89">
         <v>177</v>
       </c>
-      <c r="X89" s="6">
+      <c r="X89" s="8">
         <v>28396</v>
       </c>
-      <c r="Y89" s="9">
+      <c r="Y89" s="6">
         <v>0.16700000000000001</v>
       </c>
       <c r="Z89">
@@ -10084,28 +10091,28 @@
       <c r="A90" s="1">
         <v>44193</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F90" s="6" t="s">
+      <c r="B90" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H90" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I90" s="7" t="s">
+      <c r="H90" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I90" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J90" s="4" t="s">
@@ -10114,25 +10121,25 @@
       <c r="K90" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L90" s="6" t="s">
+      <c r="L90" s="8" t="s">
         <v>35</v>
       </c>
       <c r="M90" t="s">
         <v>35</v>
       </c>
-      <c r="N90" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O90" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P90" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q90" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R90" s="7" t="s">
+      <c r="N90" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O90" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P90" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q90" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R90" s="9" t="s">
         <v>35</v>
       </c>
       <c r="S90" s="3" t="s">
@@ -10141,7 +10148,7 @@
       <c r="T90" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U90" s="9" t="s">
+      <c r="U90" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V90" t="s">
@@ -10150,10 +10157,10 @@
       <c r="W90" t="s">
         <v>35</v>
       </c>
-      <c r="X90" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y90" s="9" t="s">
+      <c r="X90" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y90" s="6" t="s">
         <v>35</v>
       </c>
       <c r="Z90" t="s">
@@ -10191,36 +10198,33 @@
       <c r="A91" s="1">
         <v>44194</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="8">
         <v>81960614</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91" s="9">
         <v>1788731</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="8">
         <v>19548706</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F91" s="8">
         <v>338544</v>
       </c>
       <c r="G91" s="4">
         <v>340297</v>
       </c>
-      <c r="H91" s="8">
+      <c r="H91" s="5">
         <v>0.122</v>
       </c>
-      <c r="Q91" s="8">
+      <c r="Q91" s="5">
         <v>0.104</v>
       </c>
-      <c r="U91" s="9">
+      <c r="U91" s="6">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A92"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
